--- a/Monk.xlsx
+++ b/Monk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AAC0E0-448F-7E43-92E6-F2364F5F0783}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44502FA3-802E-6A4C-9DD6-0450E8978922}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" activeTab="5" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="289">
   <si>
     <t>Weapon Skill</t>
   </si>
@@ -1105,25 +1105,28 @@
     <t>Float like a butterfly: For 3 CHI you get a +5 to your defensive skills until the start of your next round.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sting like a bee: For 3 CHI you get a flat 100% crit chance. </t>
-  </si>
-  <si>
     <t>Ignore Armor: For 1 CHI you can ignore the target's armor.</t>
   </si>
   <si>
     <t>Earth, Wind &amp; Fire: For 1 CHI your attack counts as an Elemental attack.</t>
   </si>
   <si>
-    <t>Water Punch: Heal a target for their inate healing (inate healing equals adding all statistics)</t>
-  </si>
-  <si>
-    <t>Way of the Iron Fist: +5 Weapon skill, +1 DMG. Your fists do 1d8 DMG instead of 1d4</t>
-  </si>
-  <si>
     <t>Iron Fists</t>
   </si>
   <si>
     <t>Monkyballs</t>
+  </si>
+  <si>
+    <t>Stat Rolls</t>
+  </si>
+  <si>
+    <t>Way of the Iron Fist: +5 Unarmed skill, +1 DMG. Your fists do 1d6 DMG instead of 1d4</t>
+  </si>
+  <si>
+    <t>Water Punch: Heal a target for their inate healing (inate healing equals adding all statistics) costs 3 AP</t>
+  </si>
+  <si>
+    <t>Sting like a bee: For 3 CHI you get a flat 100% crit chance for that attack.</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1868,6 +1871,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1934,15 +1940,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1959,6 +1956,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2100,233 +2106,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color theme="4" tint="0.39994506668294322"/>
@@ -2844,430 +2623,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color theme="4" tint="0.39994506668294322"/>
@@ -3484,9 +2839,104 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="-0.24994659260841701"/>
         </left>
         <right/>
         <top/>
@@ -3586,7 +3036,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3605,76 +3054,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3693,6 +3073,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3711,7 +3092,158 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5004,7 +4536,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5023,7 +4555,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5081,6 +4613,128 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5394,6 +5048,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5412,6 +5067,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5443,126 +5099,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -5592,78 +5128,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5717,7 +5181,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5737,8 +5200,604 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5881,6 +5940,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5894,10 +5954,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5919,6 +5979,128 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -6180,6 +6362,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6309,6 +6511,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6348,205 +6551,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -6670,7 +6674,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6712,6 +6715,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6727,7 +6770,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6764,6 +6806,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6782,6 +6826,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6801,45 +6846,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6913,96 +6919,96 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{145CBDC0-3D41-0042-9A92-BFAA003FF86C}" name="Table11" displayName="Table11" ref="Q2:S43" totalsRowCount="1" headerRowDxfId="296" dataDxfId="295">
   <autoFilter ref="Q2:S42" xr:uid="{F3ABECE7-6469-3F43-890B-0963AC8035B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="294" totalsRowDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="293" totalsRowDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="292" totalsRowDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="294" totalsRowDxfId="293"/>
+    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="290" totalsRowDxfId="289"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="A1:R58" xr:uid="{BA70A05F-D1C9-EC47-8CA4-A9B304C93060}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="132"/>
-    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="124"/>
-    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="123"/>
-    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="122"/>
-    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="121"/>
-    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="120"/>
-    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="119"/>
-    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="97"/>
+    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="89"/>
+    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="88"/>
+    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="87"/>
+    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="86"/>
+    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="85"/>
+    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="84"/>
+    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="82">
   <autoFilter ref="A1:C15" xr:uid="{155EBD5E-3DA9-7C4C-98B7-91D73ABBCBEA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="E1:G14" xr:uid="{5644FF1C-D713-604E-8E6F-FA601D66BB9F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="110">
+    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="75">
       <calculatedColumnFormula>F1+G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="73">
   <autoFilter ref="I1:L10" xr:uid="{8133F681-167D-F049-9826-3312B39E818C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{48A52C97-1904-CD46-80EA-064E09AAF69B}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="69">
   <autoFilter ref="O1:S10" xr:uid="{2A1B3E48-F34C-174D-8FBD-7A506A55BF41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{94233833-88FD-1A4A-B618-9CFA4BB779D8}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="291" dataDxfId="290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="280" dataDxfId="279">
   <autoFilter ref="A1:O6" xr:uid="{60B8AEF8-2C69-5B48-9C1A-DCFAB2AD983D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7021,35 +7027,35 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="289" totalsRowDxfId="288"/>
-    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="287" totalsRowDxfId="286">
+    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="278" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="277" totalsRowDxfId="51">
       <totalsRowFormula>SUM(Table1[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="285" totalsRowDxfId="284">
+    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="276" totalsRowDxfId="50">
       <totalsRowFormula>COUNTIF(Table1[Bought], "Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="283" totalsRowDxfId="282">
+    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="275" totalsRowDxfId="49">
       <totalsRowFormula>COUNTIF(Table1[Skilled], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="281" totalsRowDxfId="280">
+    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="274" totalsRowDxfId="48">
       <totalsRowFormula>COUNTIF(Table1[Expert], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="279" totalsRowDxfId="278"/>
-    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="277" totalsRowDxfId="276"/>
-    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="275" totalsRowDxfId="274"/>
-    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="273" totalsRowDxfId="272">
+    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="273" totalsRowDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="272" totalsRowDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="271" totalsRowDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="270" totalsRowDxfId="44">
       <calculatedColumnFormula>VLOOKUP(PROF,Table7[],Table7[[#Headers],[STR]],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="271" totalsRowDxfId="270"/>
-    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="269" totalsRowDxfId="268"/>
-    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="267" totalsRowDxfId="266"/>
-    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="265" totalsRowDxfId="264">
+    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="269" totalsRowDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="268" totalsRowDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="267" totalsRowDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="266" totalsRowDxfId="40">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[START]:[BONUS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="263" totalsRowDxfId="262">
+    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="265" totalsRowDxfId="39">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[TOTAL]]/10, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="261" totalsRowDxfId="260">
+    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="264" totalsRowDxfId="38">
       <calculatedColumnFormula>Table1[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; IF(Table1[[#This Row],[Skilled]] = "Yes",LVL,0) + IF(Table1[[#This Row],[Expert]]="Yes",EXPERTISE,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7060,33 +7066,33 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="259" dataDxfId="258">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="257" totalsRowDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="256" totalsRowDxfId="70">
+    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="257" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="256" totalsRowDxfId="36">
       <totalsRowFormula>SUM(Table2[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="255" totalsRowDxfId="69">
+    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="255" totalsRowDxfId="35">
       <totalsRowFormula>COUNTIF(Table2[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="254" totalsRowDxfId="68">
+    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="254" totalsRowDxfId="34">
       <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="253" totalsRowDxfId="67">
+    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="253" totalsRowDxfId="33">
       <totalsRowFormula>COUNTIF(Table2[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="252" totalsRowDxfId="66">
-      <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 5</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="252" totalsRowDxfId="32">
+      <totalsRowFormula>COUNTIF(Table2[Expert],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="251" totalsRowDxfId="65">
+    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="251" totalsRowDxfId="31">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="250" totalsRowDxfId="64">
+    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="250" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="249" totalsRowDxfId="63">
+    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="249" totalsRowDxfId="29">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="248" totalsRowDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="247" totalsRowDxfId="61">
+    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="248" totalsRowDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="247" totalsRowDxfId="27">
       <calculatedColumnFormula>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7095,35 +7101,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="246" dataDxfId="245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="244" dataDxfId="243">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="244" totalsRowDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="243" totalsRowDxfId="81">
+    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="240" totalsRowDxfId="239">
       <totalsRowFormula>SUM(Table217[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="242" totalsRowDxfId="80">
+    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="238" totalsRowDxfId="237">
       <totalsRowFormula>COUNTIF(Table217[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="241" totalsRowDxfId="79">
+    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="236" totalsRowDxfId="235">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="240" totalsRowDxfId="78">
+    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="234" totalsRowDxfId="233">
       <totalsRowFormula>COUNTIF(Table217[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="239" totalsRowDxfId="77">
+    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="232" totalsRowDxfId="231">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="238" totalsRowDxfId="76">
+    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="230" totalsRowDxfId="229">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="237" totalsRowDxfId="75">
+    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="228" totalsRowDxfId="227">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Skilled]] = "YES",VLOOKUP(Table217[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="236" totalsRowDxfId="74">
+    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="226" totalsRowDxfId="225">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="235" totalsRowDxfId="73"/>
-    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="234" totalsRowDxfId="72">
+    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="222" totalsRowDxfId="221">
       <calculatedColumnFormula>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7132,24 +7138,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L20" totalsRowCount="1" headerRowDxfId="233" dataDxfId="232">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L20" totalsRowCount="1" headerRowDxfId="220" dataDxfId="219">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="231" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="230" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="229" totalsRowDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="228" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="227" totalsRowDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="226" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="218" totalsRowDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="217" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="216" totalsRowDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="215" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="214" totalsRowDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="213" totalsRowDxfId="59">
       <calculatedColumnFormula>SUM(Table9[[#This Row],[Rank]:[Special]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="225" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="224" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="223" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="222" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="221" totalsRowDxfId="1">
+    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="212" totalsRowDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="211" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="210" totalsRowDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="209" totalsRowDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="208" totalsRowDxfId="54">
       <calculatedColumnFormula>Table9[[#This Row],[Prefix]] &amp; SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]] &amp; Table9[[#This Row],[Postfix]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" totalsRowFunction="custom" dataDxfId="220" totalsRowDxfId="0">
+    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" totalsRowFunction="custom" dataDxfId="207" totalsRowDxfId="53">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table9[XP])</totalsRowFormula>
     </tableColumn>
@@ -7159,145 +7165,145 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="219" dataDxfId="218">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="206" dataDxfId="205">
   <autoFilter ref="A2:V21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="217" totalsRowDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="216" totalsRowDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="215" totalsRowDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="57">
+    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="200" totalsRowDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="198" totalsRowDxfId="197">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="56">
+    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="196" totalsRowDxfId="195">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="55">
+    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="194" totalsRowDxfId="193">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="54">
+    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="192" totalsRowDxfId="191">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="53">
+    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="190" totalsRowDxfId="189">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="209" totalsRowDxfId="52">
+    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="188" totalsRowDxfId="187">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="208" totalsRowDxfId="51">
+    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="186" totalsRowDxfId="185">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="207" totalsRowDxfId="50">
+    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="184" totalsRowDxfId="183">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="206" totalsRowDxfId="49">
+    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="182" totalsRowDxfId="181">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="205" totalsRowDxfId="48">
+    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="179">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="204" totalsRowDxfId="47">
+    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="178" totalsRowDxfId="177">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="203" totalsRowDxfId="46">
+    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="176" totalsRowDxfId="175">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="202" totalsRowDxfId="45">
+    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="201" totalsRowDxfId="44">
+    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="172" totalsRowDxfId="171">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="200" totalsRowDxfId="43">
+    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="170" totalsRowDxfId="169">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="199" totalsRowDxfId="42">
+    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="167">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="198" totalsRowDxfId="41">
+    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="166" totalsRowDxfId="165">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="197" totalsRowDxfId="40">
+    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="163">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="196" totalsRowDxfId="39"/>
+    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="162" totalsRowDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:AA22" totalsRowCount="1" headerRowDxfId="195" dataDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:AA22" totalsRowCount="1" headerRowDxfId="160" dataDxfId="159">
   <autoFilter ref="A2:AA21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="27">
-    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="193" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="192" totalsRowDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="191" totalsRowDxfId="36"/>
-    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="190" totalsRowDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="189" totalsRowDxfId="34"/>
-    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="188" totalsRowDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="187" totalsRowDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="186" totalsRowDxfId="31">
+    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="158" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="157" totalsRowDxfId="25"/>
+    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="156" totalsRowDxfId="24"/>
+    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="155" totalsRowDxfId="23"/>
+    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="154" totalsRowDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="153" totalsRowDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="152" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="19">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="185" totalsRowDxfId="30">
+    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="18">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="184" totalsRowDxfId="29">
+    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="17">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="183" totalsRowDxfId="28">
+    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="16">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="182" totalsRowDxfId="27">
+    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="15">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="181" totalsRowDxfId="26">
+    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="14">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="25">
+    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="13">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="179" totalsRowDxfId="24">
+    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="12">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="178" totalsRowDxfId="23">
+    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="11">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="22">
+    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="10">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="176" totalsRowDxfId="21">
+    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="9">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="175" totalsRowDxfId="20">
+    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="8">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{7A2D1CD4-98D1-6F4E-B0A1-5BF54AE2F9B7}" name="AP" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="19">
+    <tableColumn id="1" xr3:uid="{7A2D1CD4-98D1-6F4E-B0A1-5BF54AE2F9B7}" name="AP" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="7">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AP])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="173" totalsRowDxfId="18">
+    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="6">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INI2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="172" totalsRowDxfId="17">
+    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="5">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="171" totalsRowDxfId="16">
+    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="4">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="170" totalsRowDxfId="15">
+    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="3">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="169" totalsRowDxfId="14">
+    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="2">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="13">
+    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="167" totalsRowDxfId="12">
+    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="132" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] &amp; "+" &amp; IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) &amp; FEAT_DMG &amp; "  INI:" &amp; Table1218[[#This Row],[INI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7306,45 +7312,45 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G39" totalsRowCount="1" dataDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G39" totalsRowCount="1" dataDxfId="131">
   <autoFilter ref="A1:G38" xr:uid="{AB73435D-1DA5-9D4D-A3C2-6FDD431734AF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level" dataDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled" dataDxfId="161"/>
-    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled" dataDxfId="126"/>
+    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
       <totalsRowFormula>SUMIF(Table18[Enabled],"=Yes",Table18[XP])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" dataDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A1:R33" xr:uid="{9A133D1A-1408-9A4D-B1A8-016FBFDDF397}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="152"/>
-    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="151"/>
-    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="150"/>
-    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="149"/>
-    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="147"/>
-    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="146"/>
-    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="145"/>
-    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="144"/>
-    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="143"/>
-    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="142"/>
-    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="141"/>
-    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="140"/>
-    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="139"/>
-    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="117"/>
+    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="111"/>
+    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="110"/>
+    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="109"/>
+    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="108"/>
+    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="107"/>
+    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="106"/>
+    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="105"/>
+    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="104"/>
+    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7650,8 +7656,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:BG291"/>
   <sheetViews>
-    <sheetView topLeftCell="B44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AI34" sqref="AI34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="BA32" sqref="BA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7665,116 +7671,116 @@
   <sheetData>
     <row r="1" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="107" t="str">
+      <c r="B2" s="108" t="str">
         <f>CHARACTER_NAME</f>
         <v>Monkyballs</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="S2" s="102" t="str">
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="S2" s="103" t="str">
         <f>CHARACTER_RACE</f>
         <v>Human</v>
       </c>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AB2" s="102" t="str">
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AB2" s="103" t="str">
         <f>CHARACTER_PROFESSION</f>
         <v>Monk</v>
       </c>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AN2" s="109">
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="103"/>
+      <c r="AN2" s="116">
         <f>TOTAL_XP</f>
         <v>80</v>
       </c>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AS2" s="109">
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AS2" s="116">
         <f>LVL</f>
         <v>5</v>
       </c>
-      <c r="AT2" s="109"/>
-      <c r="AU2" s="109"/>
-      <c r="AV2" s="109"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
       <c r="BE2" s="47"/>
     </row>
     <row r="3" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AN3" s="109"/>
-      <c r="AO3" s="109"/>
-      <c r="AP3" s="109"/>
-      <c r="AQ3" s="109"/>
-      <c r="AS3" s="109"/>
-      <c r="AT3" s="109"/>
-      <c r="AU3" s="109"/>
-      <c r="AV3" s="109"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="104"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
     </row>
     <row r="4" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
       <c r="S4" s="36" t="s">
         <v>50</v>
       </c>
@@ -7787,22 +7793,22 @@
       <c r="AK4" s="31"/>
       <c r="AL4" s="31"/>
       <c r="AM4" s="31"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="109"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
       <c r="AR4" s="31"/>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
     </row>
     <row r="5" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
       <c r="Z5" s="30"/>
       <c r="AB5" s="31"/>
       <c r="AC5" s="31"/>
@@ -7816,31 +7822,31 @@
       <c r="AK5" s="31"/>
       <c r="AL5" s="31"/>
       <c r="AM5" s="31"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
       <c r="AR5" s="31"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="117"/>
     </row>
     <row r="6" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="32"/>
-      <c r="AN6" s="111" t="s">
+      <c r="AN6" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
       <c r="AR6" s="31"/>
-      <c r="AS6" s="111" t="s">
+      <c r="AS6" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="118"/>
+      <c r="AV6" s="118"/>
     </row>
     <row r="7" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F7" s="32"/>
@@ -7851,223 +7857,223 @@
       <c r="AT7" s="31"/>
     </row>
     <row r="8" spans="2:57" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="32"/>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-      <c r="M8" s="104" t="s">
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="M8" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
-      <c r="R8" s="104" t="s">
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="R8" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="106"/>
-      <c r="W8" s="104" t="s">
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="107"/>
+      <c r="W8" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="106"/>
-      <c r="AB8" s="104" t="s">
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="107"/>
+      <c r="AB8" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="107"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="104" t="s">
+      <c r="AG8" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="107"/>
       <c r="AK8" s="31"/>
-      <c r="AL8" s="104" t="s">
+      <c r="AL8" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="106"/>
-      <c r="AQ8" s="104" t="s">
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="107"/>
+      <c r="AQ8" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="107"/>
     </row>
     <row r="9" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="91">
+      <c r="B9" s="92">
         <f>STR</f>
         <v>3</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="32"/>
-      <c r="H9" s="112">
+      <c r="H9" s="110">
         <f>CHARACTER_HP</f>
         <v>95</v>
       </c>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
-      <c r="M9" s="112">
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
+      <c r="M9" s="110">
         <f>CHARACTER_ARMOR</f>
         <v>0</v>
       </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="114"/>
-      <c r="R9" s="112">
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="112"/>
+      <c r="R9" s="110">
         <f>CHARACTER_AURA</f>
         <v>0</v>
       </c>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="114"/>
-      <c r="W9" s="112">
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="112"/>
+      <c r="W9" s="110">
         <f>CHARACTER_EXPERTISE</f>
         <v>2</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="114"/>
-      <c r="AB9" s="112">
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AB9" s="110">
         <f>CHARACTER_MOVEMENT</f>
         <v>18</v>
       </c>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="114"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="112"/>
       <c r="AF9" s="31"/>
-      <c r="AG9" s="112">
+      <c r="AG9" s="110">
         <f>CHARACTER_INI</f>
         <v>32</v>
       </c>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="114"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="112"/>
       <c r="AK9" s="31"/>
-      <c r="AL9" s="112" t="str">
+      <c r="AL9" s="110" t="str">
         <f>FEAT_INI</f>
         <v>12</v>
       </c>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="113"/>
-      <c r="AO9" s="114"/>
-      <c r="AQ9" s="112">
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="112"/>
+      <c r="AQ9" s="110">
         <f>CHARACTER_AP</f>
         <v>5</v>
       </c>
-      <c r="AR9" s="113"/>
-      <c r="AS9" s="113"/>
-      <c r="AT9" s="114"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="112"/>
     </row>
     <row r="10" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="32"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="114"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="114"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="114"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="112"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="112"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="112"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="112"/>
       <c r="AF10" s="31"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="112"/>
       <c r="AK10" s="31"/>
-      <c r="AL10" s="112"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="114"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="112"/>
       <c r="AP10" s="31"/>
-      <c r="AQ10" s="112"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="114"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="112"/>
     </row>
     <row r="11" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="32"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="117"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="117"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="117"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="117"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="116"/>
-      <c r="AE11" s="117"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="115"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="115"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="115"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="115"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="115"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="116"/>
-      <c r="AJ11" s="117"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="115"/>
       <c r="AK11" s="31"/>
-      <c r="AL11" s="115"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="116"/>
-      <c r="AO11" s="117"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="114"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="115"/>
       <c r="AP11" s="31"/>
-      <c r="AQ11" s="115"/>
-      <c r="AR11" s="116"/>
-      <c r="AS11" s="116"/>
-      <c r="AT11" s="117"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="115"/>
     </row>
     <row r="12" spans="2:57" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
-      <c r="C12" s="87">
+      <c r="C12" s="88">
         <f>STR_TOTAL</f>
         <v>21</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="38"/>
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
@@ -8108,8 +8114,8 @@
     </row>
     <row r="13" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="33"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="36"/>
@@ -8124,7 +8130,7 @@
       <c r="M13" s="45"/>
       <c r="N13" s="40" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],2,11)</f>
-        <v>1d20 + 8</v>
+        <v>1d10 + 3</v>
       </c>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
@@ -8146,27 +8152,27 @@
       <c r="AA13" s="53"/>
       <c r="AB13" s="54"/>
       <c r="AC13" s="36"/>
-      <c r="AE13" s="97" t="s">
+      <c r="AE13" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="98"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="98"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="98"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
     </row>
     <row r="14" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
@@ -8207,33 +8213,33 @@
       <c r="AA14" s="55"/>
       <c r="AB14" s="56"/>
       <c r="AC14" s="36"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="98"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="98"/>
-      <c r="AM14" s="98"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="98"/>
-      <c r="AP14" s="98"/>
-      <c r="AQ14" s="98"/>
-      <c r="AR14" s="98"/>
-      <c r="AS14" s="98"/>
-      <c r="AT14" s="98"/>
-      <c r="AU14" s="98"/>
-      <c r="AV14" s="98"/>
-      <c r="AW14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
     </row>
     <row r="15" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="32"/>
       <c r="G15" s="36"/>
       <c r="H15" s="46" t="str">
@@ -8247,7 +8253,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="42" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],4,11)</f>
-        <v>1d20 + 3</v>
+        <v>1d20 + 10</v>
       </c>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
@@ -8289,13 +8295,13 @@
       <c r="AW15" s="36"/>
     </row>
     <row r="16" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="91">
+      <c r="B16" s="92">
         <f>AGI</f>
         <v>7</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
       <c r="H16" s="46" t="str">
@@ -8309,7 +8315,7 @@
       <c r="M16" s="47"/>
       <c r="N16" s="42" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],5,11)</f>
-        <v>1d10 + 3</v>
+        <v>1d20 + 10</v>
       </c>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
@@ -8330,28 +8336,28 @@
       <c r="AA16" s="55"/>
       <c r="AB16" s="56"/>
       <c r="AC16" s="36"/>
-      <c r="AE16" s="118" t="str">
+      <c r="AE16" s="119" t="str">
         <f>Weapons!AA3</f>
-        <v>Iron Fists: 1d8+0+7+3  INI:8</v>
-      </c>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
+        <v>Iron Fists: 1d6+0+7+3  INI:8</v>
+      </c>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="119"/>
+      <c r="AH16" s="119"/>
+      <c r="AI16" s="119"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="119"/>
+      <c r="AL16" s="119"/>
+      <c r="AM16" s="119"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="119"/>
+      <c r="AP16" s="119"/>
+      <c r="AQ16" s="119"/>
+      <c r="AR16" s="119"/>
+      <c r="AS16" s="119"/>
+      <c r="AT16" s="119"/>
+      <c r="AU16" s="119"/>
+      <c r="AV16" s="119"/>
+      <c r="AW16" s="119"/>
       <c r="AX16" s="78"/>
       <c r="AY16" s="78"/>
       <c r="AZ16" s="78"/>
@@ -8361,10 +8367,10 @@
       <c r="BD16" s="20"/>
     </row>
     <row r="17" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="32"/>
       <c r="G17" s="36"/>
       <c r="H17" s="46" t="str">
@@ -8427,10 +8433,10 @@
       <c r="BD17" s="77"/>
     </row>
     <row r="18" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="32"/>
       <c r="G18" s="36"/>
       <c r="H18" s="46" t="str">
@@ -8493,11 +8499,11 @@
     </row>
     <row r="19" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34"/>
-      <c r="C19" s="87">
+      <c r="C19" s="88">
         <f>AGI_TOTAL</f>
         <v>62</v>
       </c>
-      <c r="D19" s="88"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="35"/>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
@@ -8555,8 +8561,8 @@
     </row>
     <row r="20" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="33"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
@@ -8646,7 +8652,7 @@
       <c r="X21" s="42"/>
       <c r="Y21" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>140%</v>
+        <v>100%</v>
       </c>
       <c r="AA21" s="55"/>
       <c r="AB21" s="56"/>
@@ -8679,12 +8685,12 @@
       <c r="BG21" s="32"/>
     </row>
     <row r="22" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
       <c r="H22" s="46" t="str">
@@ -8698,7 +8704,7 @@
       <c r="M22" s="47"/>
       <c r="N22" s="42" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],11,11)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
@@ -8719,27 +8725,27 @@
       <c r="AA22" s="55"/>
       <c r="AB22" s="56"/>
       <c r="AC22" s="36"/>
-      <c r="AE22" s="97" t="s">
+      <c r="AE22" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
-      <c r="AI22" s="97"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="97"/>
-      <c r="AM22" s="97"/>
-      <c r="AN22" s="97"/>
-      <c r="AO22" s="97"/>
-      <c r="AP22" s="97"/>
-      <c r="AQ22" s="97"/>
-      <c r="AR22" s="97"/>
-      <c r="AS22" s="97"/>
-      <c r="AT22" s="97"/>
-      <c r="AU22" s="97"/>
-      <c r="AV22" s="97"/>
-      <c r="AW22" s="97"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="98"/>
+      <c r="AS22" s="98"/>
+      <c r="AT22" s="98"/>
+      <c r="AU22" s="98"/>
+      <c r="AV22" s="98"/>
+      <c r="AW22" s="98"/>
       <c r="BA22" s="32"/>
       <c r="BB22" s="32"/>
       <c r="BC22" s="32"/>
@@ -8749,13 +8755,13 @@
       <c r="BG22" s="32"/>
     </row>
     <row r="23" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="91">
+      <c r="B23" s="92">
         <f>INU</f>
         <v>3</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
       <c r="H23" s="46" t="str">
@@ -8791,25 +8797,25 @@
       <c r="AB23" s="43"/>
       <c r="AC23" s="36"/>
       <c r="AD23" s="36"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="98"/>
-      <c r="AL23" s="98"/>
-      <c r="AM23" s="98"/>
-      <c r="AN23" s="98"/>
-      <c r="AO23" s="98"/>
-      <c r="AP23" s="98"/>
-      <c r="AQ23" s="98"/>
-      <c r="AR23" s="98"/>
-      <c r="AS23" s="98"/>
-      <c r="AT23" s="98"/>
-      <c r="AU23" s="98"/>
-      <c r="AV23" s="98"/>
-      <c r="AW23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="99"/>
+      <c r="AT23" s="99"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="99"/>
+      <c r="AW23" s="99"/>
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
@@ -8819,10 +8825,10 @@
       <c r="BG23" s="32"/>
     </row>
     <row r="24" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
       <c r="H24" s="46" t="str">
@@ -8886,10 +8892,10 @@
       <c r="BG24" s="32"/>
     </row>
     <row r="25" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
       <c r="H25" s="46" t="str">
@@ -8956,11 +8962,11 @@
     </row>
     <row r="26" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="34"/>
-      <c r="C26" s="87">
+      <c r="C26" s="88">
         <f>INU_TOTAL</f>
         <v>22</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="35"/>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
@@ -8975,7 +8981,7 @@
       <c r="M26" s="47"/>
       <c r="N26" s="42" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],15,11)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
@@ -9029,8 +9035,8 @@
     </row>
     <row r="27" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="33"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
@@ -9116,18 +9122,18 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="36"/>
-      <c r="S28" s="99" t="s">
+      <c r="S28" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="102"/>
       <c r="AC28" s="36"/>
       <c r="AD28" s="36"/>
       <c r="AE28" s="36"/>
@@ -9158,12 +9164,12 @@
       <c r="BG28" s="32"/>
     </row>
     <row r="29" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
       <c r="G29" s="36"/>
       <c r="H29" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,18,1)</f>
@@ -9222,13 +9228,13 @@
       <c r="BG29" s="32"/>
     </row>
     <row r="30" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="91">
+      <c r="B30" s="92">
         <f>CHA</f>
         <v>3</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
       <c r="G30" s="36"/>
       <c r="H30" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,19,1)</f>
@@ -9294,10 +9300,10 @@
       <c r="BG30" s="32"/>
     </row>
     <row r="31" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="93"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
       <c r="G31" s="36"/>
       <c r="H31" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,20,1)</f>
@@ -9363,10 +9369,10 @@
       <c r="BG31" s="32"/>
     </row>
     <row r="32" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
       <c r="G32" s="36"/>
       <c r="H32" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,21,1)</f>
@@ -9379,7 +9385,7 @@
       <c r="M32" s="47"/>
       <c r="N32" s="42" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],21,11)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 7</v>
       </c>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
@@ -9433,11 +9439,11 @@
     </row>
     <row r="33" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="34"/>
-      <c r="C33" s="87">
+      <c r="C33" s="88">
         <f>CHA_TOTAL</f>
         <v>22</v>
       </c>
-      <c r="D33" s="88"/>
+      <c r="D33" s="89"/>
       <c r="E33" s="35"/>
       <c r="G33" s="36"/>
       <c r="H33" s="46" t="str">
@@ -9476,25 +9482,27 @@
       <c r="AB33" s="67"/>
       <c r="AC33" s="36"/>
       <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="36"/>
-      <c r="AW33" s="36"/>
+      <c r="AE33" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="98"/>
+      <c r="AQ33" s="98"/>
+      <c r="AR33" s="98"/>
+      <c r="AS33" s="98"/>
+      <c r="AT33" s="98"/>
+      <c r="AU33" s="98"/>
+      <c r="AV33" s="98"/>
+      <c r="AW33" s="98"/>
       <c r="BA33" s="32"/>
       <c r="BB33" s="32"/>
       <c r="BC33" s="32"/>
@@ -9505,8 +9513,8 @@
     </row>
     <row r="34" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="33"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="32"/>
       <c r="G34" s="36"/>
       <c r="H34" s="46" t="str">
@@ -9545,25 +9553,25 @@
       <c r="AB34" s="67"/>
       <c r="AC34" s="36"/>
       <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="99"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="99"/>
+      <c r="AS34" s="99"/>
+      <c r="AT34" s="99"/>
+      <c r="AU34" s="99"/>
+      <c r="AV34" s="99"/>
+      <c r="AW34" s="99"/>
       <c r="BA34" s="32"/>
       <c r="BB34" s="32"/>
       <c r="BC34" s="32"/>
@@ -9619,13 +9627,13 @@
       <c r="AK35" s="36"/>
       <c r="AL35" s="36"/>
       <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
+      <c r="AN35" s="87"/>
+      <c r="AO35" s="87"/>
+      <c r="AP35" s="87"/>
+      <c r="AQ35" s="87"/>
+      <c r="AR35" s="87"/>
+      <c r="AS35" s="87"/>
+      <c r="AT35" s="87"/>
       <c r="AU35" s="36"/>
       <c r="AV35" s="36"/>
       <c r="AW35" s="36"/>
@@ -9638,12 +9646,12 @@
       <c r="BG35" s="32"/>
     </row>
     <row r="36" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
       <c r="G36" s="36"/>
       <c r="H36" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,25,1)</f>
@@ -9681,25 +9689,28 @@
       <c r="AB36" s="67"/>
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
+      <c r="AE36" s="119" t="str">
+        <f>"Strength: " &amp; Statistics!$O2</f>
+        <v>Strength: 1d10 + 0</v>
+      </c>
+      <c r="AF36" s="119"/>
+      <c r="AG36" s="119"/>
+      <c r="AH36" s="119"/>
+      <c r="AI36" s="119"/>
+      <c r="AJ36" s="119"/>
+      <c r="AK36" s="119"/>
+      <c r="AL36" s="119"/>
+      <c r="AM36" s="119"/>
+      <c r="AN36" s="119"/>
+      <c r="AO36" s="119"/>
+      <c r="AP36" s="119"/>
+      <c r="AQ36" s="119"/>
+      <c r="AR36" s="119"/>
+      <c r="AS36" s="119"/>
+      <c r="AT36" s="119"/>
+      <c r="AU36" s="119"/>
+      <c r="AV36" s="119"/>
+      <c r="AW36" s="119"/>
       <c r="BA36" s="32"/>
       <c r="BB36" s="32"/>
       <c r="BC36" s="32"/>
@@ -9709,13 +9720,13 @@
       <c r="BG36" s="32"/>
     </row>
     <row r="37" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="91">
+      <c r="B37" s="92">
         <f>PER</f>
         <v>3</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
       <c r="G37" s="36"/>
       <c r="H37" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,26,1)</f>
@@ -9753,25 +9764,28 @@
       <c r="AB37" s="67"/>
       <c r="AC37" s="36"/>
       <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="36"/>
-      <c r="AW37" s="36"/>
+      <c r="AE37" s="119" t="str">
+        <f>"Agility: " &amp; Statistics!$O3</f>
+        <v>Agility: 1d20 + 0</v>
+      </c>
+      <c r="AF37" s="119"/>
+      <c r="AG37" s="119"/>
+      <c r="AH37" s="119"/>
+      <c r="AI37" s="119"/>
+      <c r="AJ37" s="119"/>
+      <c r="AK37" s="119"/>
+      <c r="AL37" s="119"/>
+      <c r="AM37" s="119"/>
+      <c r="AN37" s="119"/>
+      <c r="AO37" s="119"/>
+      <c r="AP37" s="119"/>
+      <c r="AQ37" s="119"/>
+      <c r="AR37" s="119"/>
+      <c r="AS37" s="119"/>
+      <c r="AT37" s="119"/>
+      <c r="AU37" s="119"/>
+      <c r="AV37" s="119"/>
+      <c r="AW37" s="119"/>
       <c r="BA37" s="32"/>
       <c r="BB37" s="32"/>
       <c r="BC37" s="32"/>
@@ -9781,10 +9795,10 @@
       <c r="BG37" s="32"/>
     </row>
     <row r="38" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="91"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="93"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
       <c r="G38" s="36"/>
       <c r="H38" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,27,1)</f>
@@ -9822,25 +9836,28 @@
       <c r="AB38" s="67"/>
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
-      <c r="AW38" s="36"/>
+      <c r="AE38" s="119" t="str">
+        <f>"Intuitiuon: " &amp; Statistics!$O4</f>
+        <v>Intuitiuon: 1d20 + 0</v>
+      </c>
+      <c r="AF38" s="119"/>
+      <c r="AG38" s="119"/>
+      <c r="AH38" s="119"/>
+      <c r="AI38" s="119"/>
+      <c r="AJ38" s="119"/>
+      <c r="AK38" s="119"/>
+      <c r="AL38" s="119"/>
+      <c r="AM38" s="119"/>
+      <c r="AN38" s="119"/>
+      <c r="AO38" s="119"/>
+      <c r="AP38" s="119"/>
+      <c r="AQ38" s="119"/>
+      <c r="AR38" s="119"/>
+      <c r="AS38" s="119"/>
+      <c r="AT38" s="119"/>
+      <c r="AU38" s="119"/>
+      <c r="AV38" s="119"/>
+      <c r="AW38" s="119"/>
       <c r="BA38" s="32"/>
       <c r="BB38" s="32"/>
       <c r="BC38" s="32"/>
@@ -9849,11 +9866,11 @@
       <c r="BF38" s="32"/>
       <c r="BG38" s="32"/>
     </row>
-    <row r="39" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="91"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="93"/>
+    <row r="39" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
       <c r="G39" s="36"/>
       <c r="H39" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,28,1)</f>
@@ -9884,25 +9901,28 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="36"/>
       <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
+      <c r="AE39" s="119" t="str">
+        <f>"Charisma: " &amp; Statistics!$O5</f>
+        <v>Charisma: 1d10 + 0</v>
+      </c>
+      <c r="AF39" s="119"/>
+      <c r="AG39" s="119"/>
+      <c r="AH39" s="119"/>
+      <c r="AI39" s="119"/>
+      <c r="AJ39" s="119"/>
+      <c r="AK39" s="119"/>
+      <c r="AL39" s="119"/>
+      <c r="AM39" s="119"/>
+      <c r="AN39" s="119"/>
+      <c r="AO39" s="119"/>
+      <c r="AP39" s="119"/>
+      <c r="AQ39" s="119"/>
+      <c r="AR39" s="119"/>
+      <c r="AS39" s="119"/>
+      <c r="AT39" s="119"/>
+      <c r="AU39" s="119"/>
+      <c r="AV39" s="119"/>
+      <c r="AW39" s="119"/>
       <c r="BA39" s="32"/>
       <c r="BB39" s="32"/>
       <c r="BC39" s="32"/>
@@ -9911,61 +9931,64 @@
       <c r="BF39" s="32"/>
       <c r="BG39" s="32"/>
     </row>
-    <row r="40" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="34"/>
-      <c r="C40" s="87">
+      <c r="C40" s="88">
         <f>PER_TOTAL</f>
         <v>22</v>
       </c>
-      <c r="D40" s="88"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="35"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="99" t="s">
+      <c r="H40" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="102"/>
       <c r="R40" s="36"/>
-      <c r="S40" s="99" t="s">
+      <c r="S40" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="100"/>
-      <c r="W40" s="100"/>
-      <c r="X40" s="100"/>
-      <c r="Y40" s="100"/>
-      <c r="Z40" s="100"/>
-      <c r="AA40" s="100"/>
-      <c r="AB40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
+      <c r="AA40" s="101"/>
+      <c r="AB40" s="102"/>
       <c r="AC40" s="36"/>
       <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="36"/>
-      <c r="AS40" s="36"/>
-      <c r="AT40" s="36"/>
-      <c r="AU40" s="36"/>
-      <c r="AV40" s="36"/>
-      <c r="AW40" s="36"/>
+      <c r="AE40" s="119" t="str">
+        <f>"Perception: " &amp; Statistics!$O6</f>
+        <v>Perception: 1d10 + 0</v>
+      </c>
+      <c r="AF40" s="119"/>
+      <c r="AG40" s="119"/>
+      <c r="AH40" s="119"/>
+      <c r="AI40" s="119"/>
+      <c r="AJ40" s="119"/>
+      <c r="AK40" s="119"/>
+      <c r="AL40" s="119"/>
+      <c r="AM40" s="119"/>
+      <c r="AN40" s="119"/>
+      <c r="AO40" s="119"/>
+      <c r="AP40" s="119"/>
+      <c r="AQ40" s="119"/>
+      <c r="AR40" s="119"/>
+      <c r="AS40" s="119"/>
+      <c r="AT40" s="119"/>
+      <c r="AU40" s="119"/>
+      <c r="AV40" s="119"/>
+      <c r="AW40" s="119"/>
       <c r="BA40" s="32"/>
       <c r="BB40" s="32"/>
       <c r="BC40" s="32"/>
@@ -9976,8 +9999,8 @@
     </row>
     <row r="41" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="33"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="32"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
@@ -10113,106 +10136,106 @@
       <c r="BG43" s="32"/>
     </row>
     <row r="44" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
-      <c r="AE44" s="97"/>
-      <c r="AF44" s="97"/>
-      <c r="AG44" s="97"/>
-      <c r="AH44" s="97"/>
-      <c r="AI44" s="97"/>
-      <c r="AJ44" s="97"/>
-      <c r="AK44" s="97"/>
-      <c r="AL44" s="97"/>
-      <c r="AM44" s="97"/>
-      <c r="AN44" s="97"/>
-      <c r="AO44" s="97"/>
-      <c r="AP44" s="97"/>
-      <c r="AQ44" s="97"/>
-      <c r="AR44" s="97"/>
-      <c r="AS44" s="97"/>
-      <c r="AT44" s="97"/>
-      <c r="AU44" s="97"/>
-      <c r="AV44" s="97"/>
-      <c r="AW44" s="97"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="98"/>
+      <c r="R44" s="98"/>
+      <c r="S44" s="98"/>
+      <c r="T44" s="98"/>
+      <c r="U44" s="98"/>
+      <c r="V44" s="98"/>
+      <c r="W44" s="98"/>
+      <c r="X44" s="98"/>
+      <c r="Y44" s="98"/>
+      <c r="Z44" s="98"/>
+      <c r="AA44" s="98"/>
+      <c r="AB44" s="98"/>
+      <c r="AC44" s="98"/>
+      <c r="AD44" s="98"/>
+      <c r="AE44" s="98"/>
+      <c r="AF44" s="98"/>
+      <c r="AG44" s="98"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="98"/>
+      <c r="AM44" s="98"/>
+      <c r="AN44" s="98"/>
+      <c r="AO44" s="98"/>
+      <c r="AP44" s="98"/>
+      <c r="AQ44" s="98"/>
+      <c r="AR44" s="98"/>
+      <c r="AS44" s="98"/>
+      <c r="AT44" s="98"/>
+      <c r="AU44" s="98"/>
+      <c r="AV44" s="98"/>
+      <c r="AW44" s="98"/>
     </row>
     <row r="45" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
-      <c r="O45" s="98"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="98"/>
-      <c r="T45" s="98"/>
-      <c r="U45" s="98"/>
-      <c r="V45" s="98"/>
-      <c r="W45" s="98"/>
-      <c r="X45" s="98"/>
-      <c r="Y45" s="98"/>
-      <c r="Z45" s="98"/>
-      <c r="AA45" s="98"/>
-      <c r="AB45" s="98"/>
-      <c r="AC45" s="98"/>
-      <c r="AD45" s="98"/>
-      <c r="AE45" s="98"/>
-      <c r="AF45" s="98"/>
-      <c r="AG45" s="98"/>
-      <c r="AH45" s="98"/>
-      <c r="AI45" s="98"/>
-      <c r="AJ45" s="98"/>
-      <c r="AK45" s="98"/>
-      <c r="AL45" s="98"/>
-      <c r="AM45" s="98"/>
-      <c r="AN45" s="98"/>
-      <c r="AO45" s="98"/>
-      <c r="AP45" s="98"/>
-      <c r="AQ45" s="98"/>
-      <c r="AR45" s="98"/>
-      <c r="AS45" s="98"/>
-      <c r="AT45" s="98"/>
-      <c r="AU45" s="98"/>
-      <c r="AV45" s="98"/>
-      <c r="AW45" s="98"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="99"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="99"/>
+      <c r="AH45" s="99"/>
+      <c r="AI45" s="99"/>
+      <c r="AJ45" s="99"/>
+      <c r="AK45" s="99"/>
+      <c r="AL45" s="99"/>
+      <c r="AM45" s="99"/>
+      <c r="AN45" s="99"/>
+      <c r="AO45" s="99"/>
+      <c r="AP45" s="99"/>
+      <c r="AQ45" s="99"/>
+      <c r="AR45" s="99"/>
+      <c r="AS45" s="99"/>
+      <c r="AT45" s="99"/>
+      <c r="AU45" s="99"/>
+      <c r="AV45" s="99"/>
+      <c r="AW45" s="99"/>
     </row>
     <row r="46" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT46" s="36"/>
@@ -10534,7 +10557,7 @@
     </row>
     <row r="53" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="36" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
@@ -10586,7 +10609,7 @@
     </row>
     <row r="54" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -10691,7 +10714,7 @@
     </row>
     <row r="56" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
@@ -10743,7 +10766,7 @@
     </row>
     <row r="57" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="36" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
@@ -10795,7 +10818,7 @@
     </row>
     <row r="58" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="36"/>
@@ -11912,7 +11935,7 @@
     <row r="290" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="291" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="53">
     <mergeCell ref="W9:Z11"/>
     <mergeCell ref="R9:U11"/>
     <mergeCell ref="M9:P11"/>
@@ -11921,6 +11944,12 @@
     <mergeCell ref="AE22:AW23"/>
     <mergeCell ref="AB9:AE11"/>
     <mergeCell ref="AG9:AJ11"/>
+    <mergeCell ref="AE33:AW34"/>
+    <mergeCell ref="AE36:AW36"/>
+    <mergeCell ref="AE37:AW37"/>
+    <mergeCell ref="AE38:AW38"/>
+    <mergeCell ref="AE39:AW39"/>
+    <mergeCell ref="AE40:AW40"/>
     <mergeCell ref="AS2:AV5"/>
     <mergeCell ref="AS6:AV6"/>
     <mergeCell ref="AN2:AQ5"/>
@@ -14521,7 +14550,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -14538,33 +14567,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="119" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="120"/>
+      <c r="B2" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="121"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
       <c r="O2" s="11"/>
       <c r="Q2" s="1" t="s">
         <v>136</v>
@@ -14580,11 +14609,11 @@
       <c r="A3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="122">
+      <c r="B3" s="123">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,2,TRUE)</f>
         <v>5</v>
       </c>
-      <c r="C3" s="123"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -14610,10 +14639,10 @@
       <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="121"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14640,10 +14669,10 @@
       <c r="A5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="123"/>
+      <c r="C5" s="124"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14654,11 +14683,11 @@
       <c r="A6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="119">
+      <c r="B6" s="120">
         <f>SUM(D6:E6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="120"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="2">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,3,TRUE)</f>
         <v>2</v>
@@ -14697,11 +14726,11 @@
       <c r="A7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="123">
         <f>SUM(D7,F7) * IF(CHARACTER_LEVEL &gt; 0, CHARACTER_LEVEL, 1)</f>
         <v>95</v>
       </c>
-      <c r="C7" s="123"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="2">
         <f>STR * E7 + AGI + INU + CHA + PER</f>
         <v>19</v>
@@ -14717,15 +14746,15 @@
       <c r="G7" s="2"/>
       <c r="I7" s="6">
         <f>Table1[[#Totals],[Code]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="6">
         <f>Table2[[#Totals],[Statistic]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K7" s="6">
         <f>FEAT_XP</f>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L7" s="6">
         <f>RESISTANCES_XP</f>
@@ -14740,7 +14769,7 @@
       </c>
       <c r="O7" s="6">
         <f>SUM(I7:N7)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="10"/>
@@ -14749,11 +14778,11 @@
       <c r="A8" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="120">
         <f>SUM(D8:E8)</f>
         <v>18</v>
       </c>
-      <c r="C8" s="120"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="2">
         <v>10</v>
       </c>
@@ -14770,11 +14799,11 @@
       <c r="A9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="122">
+      <c r="B9" s="123">
         <f>FEAT_ARMOR</f>
         <v>0</v>
       </c>
-      <c r="C9" s="123"/>
+      <c r="C9" s="124"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -14783,7 +14812,7 @@
       </c>
       <c r="K9" s="16">
         <f>L4-O7</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="17"/>
       <c r="R9" s="10"/>
@@ -14792,11 +14821,11 @@
       <c r="A10" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="120">
         <f>FEAT_AURA</f>
         <v>0</v>
       </c>
-      <c r="C10" s="120"/>
+      <c r="C10" s="121"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -14807,11 +14836,11 @@
       <c r="A11" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="122">
+      <c r="B11" s="123">
         <f>D11+E11</f>
         <v>32</v>
       </c>
-      <c r="C11" s="123"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="2">
         <v>20</v>
       </c>
@@ -14828,11 +14857,11 @@
       <c r="A12" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="119">
+      <c r="B12" s="120">
         <f>D12+E12</f>
         <v>5</v>
       </c>
-      <c r="C12" s="120"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="2">
         <v>3</v>
       </c>
@@ -14847,8 +14876,8 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -14857,8 +14886,8 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -14867,8 +14896,8 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -14877,8 +14906,8 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="121"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -14887,8 +14916,8 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -14897,8 +14926,8 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="121"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -14907,8 +14936,8 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -14917,8 +14946,8 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -14927,8 +14956,8 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -15083,7 +15112,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -15207,7 +15236,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -15217,7 +15246,7 @@
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" ref="F3:F6" si="0">IF(C3="Yes","1d20","1d10")</f>
-        <v>1d10</v>
+        <v>1d20</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
@@ -15251,7 +15280,7 @@
       </c>
       <c r="O3" s="2" t="str">
         <f>Table1[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; IF(Table1[[#This Row],[Skilled]] = "Yes",LVL,0) + IF(Table1[[#This Row],[Expert]]="Yes",EXPERTISE,0)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -15262,7 +15291,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -15272,7 +15301,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1d10</v>
+        <v>1d20</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
@@ -15306,7 +15335,7 @@
       </c>
       <c r="O4" s="2" t="str">
         <f>Table1[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; IF(Table1[[#This Row],[Skilled]] = "Yes",LVL,0) + IF(Table1[[#This Row],[Expert]]="Yes",EXPERTISE,0)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -15317,7 +15346,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -15424,11 +15453,11 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(Table1[[#Totals],[Bought]:[Expert]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Table1[Bought], "Yes") * 2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <f>COUNTIF(Table1[Skilled], "Yes") * 3</f>
@@ -15445,42 +15474,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="containsText" dxfId="96" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="288" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="1d10">
+    <cfRule type="containsText" dxfId="287" priority="7" operator="containsText" text="1d10">
       <formula>NOT(ISERROR(SEARCH("1d10",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L6 H2:L3 I4:L4">
-    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15505,7 +15534,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -15561,7 +15590,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -15574,7 +15603,7 @@
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G25" si="0">IF(C2="Yes","1d20","1d10")</f>
-        <v>1d20</v>
+        <v>1d10</v>
       </c>
       <c r="H2" s="2">
         <f>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</f>
@@ -15589,8 +15618,8 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2) + 3 + 5</f>
-        <v>1d20 + 8</v>
+        <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2) + 3</f>
+        <v>1d10 + 3</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -15643,7 +15672,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -15657,7 +15686,7 @@
       </c>
       <c r="H4" s="2">
         <f>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2">
         <f>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</f>
@@ -15668,7 +15697,7 @@
       </c>
       <c r="K4" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H4:J4) + ARMOR_DODGE + 3</f>
-        <v>1d20 + 3</v>
+        <v>1d20 + 10</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15679,10 +15708,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -15692,11 +15721,11 @@
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1d10</v>
+        <v>1d20</v>
       </c>
       <c r="H5" s="2">
         <f>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2">
         <f>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</f>
@@ -15707,7 +15736,7 @@
       </c>
       <c r="K5" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H5:J5) + 3</f>
-        <v>1d10 + 3</v>
+        <v>1d20 + 10</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -15951,7 +15980,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -15964,7 +15993,7 @@
       </c>
       <c r="G11" s="4" t="str">
         <f>IF(C11="Yes","1d20","1d10")</f>
-        <v>1d10</v>
+        <v>1d20</v>
       </c>
       <c r="H11" s="2">
         <f>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</f>
@@ -15979,7 +16008,7 @@
       </c>
       <c r="K11" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H11:J11)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
       <c r="M11" s="48"/>
       <c r="O11" s="2"/>
@@ -16155,7 +16184,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -16168,7 +16197,7 @@
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1d10</v>
+        <v>1d20</v>
       </c>
       <c r="H15" s="2">
         <f>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</f>
@@ -16183,7 +16212,7 @@
       </c>
       <c r="K15" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H15:J15)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
       <c r="M15" s="48"/>
       <c r="O15" s="2"/>
@@ -16461,10 +16490,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>29</v>
@@ -16474,11 +16503,11 @@
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1d10</v>
+        <v>1d20</v>
       </c>
       <c r="H21" s="2">
         <f>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I21" s="2">
         <f>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</f>
@@ -16489,7 +16518,7 @@
       </c>
       <c r="K21" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H21:J21)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 7</v>
       </c>
       <c r="M21" s="48"/>
       <c r="O21" s="2"/>
@@ -17065,23 +17094,23 @@
       </c>
       <c r="B35" s="2">
         <f>SUM(Table2[[#Totals],[Bought]:[Expert]])</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(Table2[Bought],"Yes") * 2</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2">
         <f>COUNTIF(Table2[Skilled],"Yes") * 3</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2">
         <f>COUNTIF(Table2[Professional],"Yes") * 4</f>
         <v>4</v>
       </c>
       <c r="F35" s="2">
-        <f>COUNTIF(Table2[Skilled],"Yes") * 5</f>
-        <v>5</v>
+        <f>COUNTIF(Table2[Expert],"Yes") * 5</f>
+        <v>0</v>
       </c>
       <c r="G35" s="4"/>
       <c r="M35" s="48"/>
@@ -17227,22 +17256,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F25 C31:F34">
-    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="263" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K25 H31:K34">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F30">
-    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="261" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:K30">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17838,12 +17867,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F16">
-    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="246" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="83" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17866,8 +17895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D8EBD6-9BE4-5C49-B401-A7498992A36D}">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -18287,7 +18316,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <f>WEAPON_EXTRAATTACK</f>
@@ -18302,7 +18331,7 @@
       </c>
       <c r="F10" s="2">
         <f>SUM(Table9[[#This Row],[Rank]:[Special]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2">
         <v>20</v>
@@ -18313,15 +18342,15 @@
       </c>
       <c r="J10" s="2">
         <f>ROUND(Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]], 0)</f>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>Table9[[#This Row],[CALC]]&amp; Table9[[#This Row],[Postfix]]</f>
-        <v>140%</v>
+        <v>100%</v>
       </c>
       <c r="L10" s="2">
         <f>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>132</v>
@@ -18690,7 +18719,7 @@
       <c r="K20" s="79"/>
       <c r="L20" s="79">
         <f>SUM(Table9[XP])</f>
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -18763,29 +18792,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124" t="s">
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
       <c r="V1" s="28"/>
       <c r="W1" s="28"/>
     </row>
@@ -20291,7 +20320,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -20311,33 +20340,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124" t="s">
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124" t="s">
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -20424,7 +20453,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -20436,7 +20465,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -20503,7 +20532,7 @@
       </c>
       <c r="AA3" s="77" t="str">
         <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] &amp; "+" &amp; AGI &amp; FEAT_DMG &amp; "  INI:" &amp; Table1218[[#This Row],[INI]]</f>
-        <v>Iron Fists: 1d8+0+7+3  INI:8</v>
+        <v>Iron Fists: 1d6+0+7+3  INI:8</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>270</v>

--- a/Monk.xlsx
+++ b/Monk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Youri\aria-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6462E12D-E5CA-C644-A846-AEA034FCA3A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649482A6-D843-400B-A2FC-F2D9D5987451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38205" windowHeight="23535" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -116,10 +116,6 @@
     <definedName name="EQ_STAMINA" localSheetId="7">Table1218[[#Totals],[Stamina]]</definedName>
     <definedName name="EQ_STAMINA">Table12[[#Totals],[Stamina]]</definedName>
     <definedName name="EXPERTISE">'Character Info'!$B$6</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">'Character Sheet'!$AE$16:$BD$16</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="5">Feats!$N$25:$O$25</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="4">Resistances!$O$7:$Q$7</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="3">Skills!$N$9:$O$9</definedName>
     <definedName name="FEAT_AP">Feats!$K$15</definedName>
     <definedName name="FEAT_ARMOR">Feats!$J$11</definedName>
     <definedName name="FEAT_AURA">Feats!$J$12</definedName>
@@ -141,6 +137,10 @@
     <definedName name="Name" localSheetId="4">Resistances!RACES</definedName>
     <definedName name="Name" localSheetId="7">Weapons!RACES</definedName>
     <definedName name="Name">RACES</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'Character Sheet'!$AE$16:$BD$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">Feats!$N$25:$O$25</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">Resistances!$O$7:$Q$7</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">Skills!$N$9:$O$9</definedName>
     <definedName name="PER">Statistics!$N$6</definedName>
     <definedName name="PER_TOTAL">Statistics!$M$6</definedName>
     <definedName name="PROF">'Character Info'!$B$5</definedName>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="291">
   <si>
     <t>Weapon Skill</t>
   </si>
@@ -1120,9 +1120,6 @@
     <t>Water Punch: Heal a target for their inate healing (inate healing equals adding all statistics) costs 3 AP</t>
   </si>
   <si>
-    <t>Winderness Surv.</t>
-  </si>
-  <si>
     <t>Haggle</t>
   </si>
   <si>
@@ -1130,13 +1127,19 @@
   </si>
   <si>
     <t>Sting like a bee: For 3 CHI you get a flat 100% crit chance for that attack. (Per CHI, +33% crit)</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Wilderness Surv.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1877,6 +1880,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1895,24 +1964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1922,62 +1973,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1988,12 +1985,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="297">
     <dxf>
@@ -2214,72 +2217,285 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -4963,6 +5179,126 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -4997,365 +5333,18 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5875,6 +5864,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6133,6 +6132,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6758,6 +6777,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6791,6 +6850,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6809,65 +6870,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -6922,96 +6925,96 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{145CBDC0-3D41-0042-9A92-BFAA003FF86C}" name="Table11" displayName="Table11" ref="Q2:S43" totalsRowCount="1" headerRowDxfId="296" dataDxfId="295">
   <autoFilter ref="Q2:S42" xr:uid="{F3ABECE7-6469-3F43-890B-0963AC8035B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="294" totalsRowDxfId="293"/>
-    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="292" totalsRowDxfId="291"/>
-    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="294" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="293" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="292" totalsRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A1:R58" xr:uid="{BA70A05F-D1C9-EC47-8CA4-A9B304C93060}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="57"/>
-    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="58"/>
+    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="A1:C15" xr:uid="{155EBD5E-3DA9-7C4C-98B7-91D73ABBCBEA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="E1:G14" xr:uid="{5644FF1C-D713-604E-8E6F-FA601D66BB9F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="36">
       <calculatedColumnFormula>F1+G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="I1:L10" xr:uid="{8133F681-167D-F049-9826-3312B39E818C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{48A52C97-1904-CD46-80EA-064E09AAF69B}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="O1:S10" xr:uid="{2A1B3E48-F34C-174D-8FBD-7A506A55BF41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{94233833-88FD-1A4A-B618-9CFA4BB779D8}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="288" dataDxfId="287">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="283" dataDxfId="282">
   <autoFilter ref="A1:O6" xr:uid="{60B8AEF8-2C69-5B48-9C1A-DCFAB2AD983D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7030,35 +7033,35 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283">
+    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="281" totalsRowDxfId="280"/>
+    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="279" totalsRowDxfId="278">
       <totalsRowFormula>SUM(Table1[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="282" totalsRowDxfId="281">
+    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="277" totalsRowDxfId="276">
       <totalsRowFormula>COUNTIF(Table1[Bought], "Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="280" totalsRowDxfId="279">
+    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="275" totalsRowDxfId="274">
       <totalsRowFormula>COUNTIF(Table1[Skilled], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="278" totalsRowDxfId="277">
+    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="273" totalsRowDxfId="272">
       <totalsRowFormula>COUNTIF(Table1[Expert], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="270" totalsRowDxfId="269">
+    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="271" totalsRowDxfId="270"/>
+    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="269" totalsRowDxfId="268"/>
+    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="267" totalsRowDxfId="266"/>
+    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="265" totalsRowDxfId="264">
       <calculatedColumnFormula>VLOOKUP(PROF,Table7[],Table7[[#Headers],[STR]],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="262" totalsRowDxfId="261">
+    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="261" totalsRowDxfId="260"/>
+    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="257" totalsRowDxfId="256">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[START]:[BONUS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="260" totalsRowDxfId="259">
+    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="255" totalsRowDxfId="254">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[TOTAL]]/10, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="258" totalsRowDxfId="257">
+    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="253" totalsRowDxfId="252">
       <calculatedColumnFormula>Table1[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; IF(Table1[[#This Row],[Skilled]] = "Yes",LVL,0) + IF(Table1[[#This Row],[Expert]]="Yes",EXPERTISE,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7067,35 +7070,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="256" dataDxfId="255">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="247" dataDxfId="246">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="254" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="253" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="245" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="244" totalsRowDxfId="9">
       <totalsRowFormula>SUM(Table2[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="252" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="243" totalsRowDxfId="8">
       <totalsRowFormula>COUNTIF(Table2[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="251" totalsRowDxfId="7">
+    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="242" totalsRowDxfId="7">
       <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="250" totalsRowDxfId="6">
+    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="241" totalsRowDxfId="6">
       <totalsRowFormula>COUNTIF(Table2[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="249" totalsRowDxfId="5">
+    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="240" totalsRowDxfId="5">
       <totalsRowFormula>COUNTIF(Table2[Expert],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="248" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="239" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="247" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="238" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="246" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="237" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="245" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="244" totalsRowDxfId="0">
+    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="236" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="235" totalsRowDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7104,35 +7107,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="243" dataDxfId="242">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="232" dataDxfId="231">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="241" totalsRowDxfId="240"/>
-    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="239" totalsRowDxfId="238">
+    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="228" totalsRowDxfId="227">
       <totalsRowFormula>SUM(Table217[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="237" totalsRowDxfId="236">
+    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="226" totalsRowDxfId="225">
       <totalsRowFormula>COUNTIF(Table217[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="235" totalsRowDxfId="234">
+    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="224" totalsRowDxfId="223">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="233" totalsRowDxfId="232">
+    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="222" totalsRowDxfId="221">
       <totalsRowFormula>COUNTIF(Table217[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="231" totalsRowDxfId="230">
+    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="220" totalsRowDxfId="219">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="229" totalsRowDxfId="228">
+    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="218" totalsRowDxfId="217">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="227" totalsRowDxfId="226">
+    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="216" totalsRowDxfId="215">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Skilled]] = "YES",VLOOKUP(Table217[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="225" totalsRowDxfId="224">
+    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="214" totalsRowDxfId="213">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="223" totalsRowDxfId="222"/>
-    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="221" totalsRowDxfId="220">
+    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="212" totalsRowDxfId="211"/>
+    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="210" totalsRowDxfId="209">
       <calculatedColumnFormula>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7141,24 +7144,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L20" totalsRowCount="1" headerRowDxfId="219" dataDxfId="218">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L20" totalsRowCount="1" headerRowDxfId="208" dataDxfId="207">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="215" totalsRowDxfId="214"/>
-    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="207" totalsRowDxfId="206">
+    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="206" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="205" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="204" totalsRowDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="203" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="202" totalsRowDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="201" totalsRowDxfId="17">
       <calculatedColumnFormula>SUM(Table9[[#This Row],[Rank]:[Special]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="197" totalsRowDxfId="196">
+    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="200" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="199" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="198" totalsRowDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="197" totalsRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="196" totalsRowDxfId="12">
       <calculatedColumnFormula>Table9[[#This Row],[Prefix]] &amp; SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]] &amp; Table9[[#This Row],[Postfix]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" totalsRowFunction="custom" dataDxfId="195" totalsRowDxfId="194">
+    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" totalsRowFunction="custom" dataDxfId="195" totalsRowDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table9[XP])</totalsRowFormula>
     </tableColumn>
@@ -7168,145 +7171,145 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="193" dataDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="194" dataDxfId="193">
   <autoFilter ref="A2:V21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="185" totalsRowDxfId="184">
+    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="192" totalsRowDxfId="191"/>
+    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="186" totalsRowDxfId="185">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="183" totalsRowDxfId="182">
+    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="184" totalsRowDxfId="183">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="181" totalsRowDxfId="180">
+    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="182" totalsRowDxfId="181">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="179" totalsRowDxfId="178">
+    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="180" totalsRowDxfId="179">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="176">
+    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="178" totalsRowDxfId="177">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="175" totalsRowDxfId="174">
+    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="176" totalsRowDxfId="175">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="173" totalsRowDxfId="172">
+    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="171" totalsRowDxfId="170">
+    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="172" totalsRowDxfId="171">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="169" totalsRowDxfId="168">
+    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="170" totalsRowDxfId="169">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
+    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="167">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="166" totalsRowDxfId="165">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="162">
+    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="163">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="160">
+    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="161">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="159" totalsRowDxfId="158">
+    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="156">
+    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="154">
+    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="155">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="153">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="150" totalsRowDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:AA22" totalsRowCount="1" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:AA22" totalsRowCount="1" headerRowDxfId="148" dataDxfId="147">
   <autoFilter ref="A2:AA21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="27">
-    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="132" totalsRowDxfId="131">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="129">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="127">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="125">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="123">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="121">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
+    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
+    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{7A2D1CD4-98D1-6F4E-B0A1-5BF54AE2F9B7}" name="AP" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="1" xr3:uid="{7A2D1CD4-98D1-6F4E-B0A1-5BF54AE2F9B7}" name="AP" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AP])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INI2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="93" totalsRowDxfId="92">
+    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] &amp; "+" &amp; IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) &amp; FEAT_DMG &amp; "  INI:" &amp; Table1218[[#This Row],[INI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7315,52 +7318,52 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G39" totalsRowCount="1" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G39" totalsRowCount="1" dataDxfId="92">
   <autoFilter ref="A1:G38" xr:uid="{AB73435D-1DA5-9D4D-A3C2-6FDD431734AF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
       <totalsRowFormula>SUMIF(Table18[Enabled],"=Yes",Table18[XP])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:R33" xr:uid="{9A133D1A-1408-9A4D-B1A8-016FBFDDF397}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="77"/>
-    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="69"/>
-    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="65"/>
-    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="64"/>
-    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="78"/>
+    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="65"/>
+    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7659,131 +7662,131 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:BG291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="50" width="1.83203125" style="29" customWidth="1"/>
-    <col min="51" max="54" width="3.83203125" style="29" customWidth="1"/>
+    <col min="1" max="50" width="1.875" style="29" customWidth="1"/>
+    <col min="51" max="54" width="3.875" style="29" customWidth="1"/>
     <col min="55" max="55" width="3.5" style="29" customWidth="1"/>
-    <col min="56" max="160" width="3.83203125" style="29" customWidth="1"/>
-    <col min="161" max="16384" width="10.83203125" style="29"/>
+    <col min="56" max="160" width="3.875" style="29" customWidth="1"/>
+    <col min="161" max="16384" width="10.875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="111" t="str">
+    <row r="1" spans="2:57" ht="9.9499999999999993" customHeight="1"/>
+    <row r="2" spans="2:57" ht="9.9499999999999993" customHeight="1">
+      <c r="B2" s="108" t="str">
         <f>CHARACTER_NAME</f>
         <v>Monkyballs</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="S2" s="109" t="str">
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="S2" s="103" t="str">
         <f>CHARACTER_RACE</f>
         <v>Human</v>
       </c>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AB2" s="109" t="str">
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AB2" s="103" t="str">
         <f>CHARACTER_PROFESSION</f>
         <v>Monk</v>
       </c>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AN2" s="100">
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="103"/>
+      <c r="AN2" s="116">
         <f>TOTAL_XP</f>
-        <v>80</v>
-      </c>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
-      <c r="AS2" s="100">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AS2" s="116">
         <f>LVL</f>
-        <v>5</v>
-      </c>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
+        <v>6</v>
+      </c>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
       <c r="BE2" s="47"/>
     </row>
-    <row r="3" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="100"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="100"/>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="100"/>
-    </row>
-    <row r="4" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
+    <row r="3" spans="2:57" ht="9.9499999999999993" customHeight="1">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="104"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+    </row>
+    <row r="4" spans="2:57" ht="9.9499999999999993" customHeight="1">
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
       <c r="S4" s="36" t="s">
         <v>49</v>
       </c>
@@ -7796,22 +7799,22 @@
       <c r="AK4" s="31"/>
       <c r="AL4" s="31"/>
       <c r="AM4" s="31"/>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
       <c r="AR4" s="31"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="100"/>
-    </row>
-    <row r="5" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+    </row>
+    <row r="5" spans="2:57" ht="9.9499999999999993" customHeight="1">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
       <c r="Z5" s="30"/>
       <c r="AB5" s="31"/>
       <c r="AC5" s="31"/>
@@ -7825,33 +7828,33 @@
       <c r="AK5" s="31"/>
       <c r="AL5" s="31"/>
       <c r="AM5" s="31"/>
-      <c r="AN5" s="101"/>
-      <c r="AO5" s="101"/>
-      <c r="AP5" s="101"/>
-      <c r="AQ5" s="101"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
       <c r="AR5" s="31"/>
-      <c r="AS5" s="101"/>
-      <c r="AT5" s="101"/>
-      <c r="AU5" s="101"/>
-      <c r="AV5" s="101"/>
-    </row>
-    <row r="6" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="117"/>
+    </row>
+    <row r="6" spans="2:57" ht="9.9499999999999993" customHeight="1">
       <c r="F6" s="32"/>
-      <c r="AN6" s="102" t="s">
+      <c r="AN6" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
       <c r="AR6" s="31"/>
-      <c r="AS6" s="102" t="s">
+      <c r="AS6" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102"/>
-      <c r="AV6" s="102"/>
-    </row>
-    <row r="7" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="118"/>
+      <c r="AV6" s="118"/>
+    </row>
+    <row r="7" spans="2:57" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="F7" s="32"/>
       <c r="AP7" s="31"/>
       <c r="AQ7" s="31"/>
@@ -7859,224 +7862,224 @@
       <c r="AS7" s="31"/>
       <c r="AT7" s="31"/>
     </row>
-    <row r="8" spans="2:57" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="112" t="s">
+    <row r="8" spans="2:57" ht="9.9499999999999993" customHeight="1" thickTop="1">
+      <c r="B8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="32"/>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105"/>
-      <c r="M8" s="103" t="s">
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="M8" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
-      <c r="R8" s="103" t="s">
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="R8" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="105"/>
-      <c r="W8" s="103" t="s">
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="107"/>
+      <c r="W8" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="105"/>
-      <c r="AB8" s="103" t="s">
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="107"/>
+      <c r="AB8" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="105"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="107"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="103" t="s">
+      <c r="AG8" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="105"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="107"/>
       <c r="AK8" s="31"/>
-      <c r="AL8" s="103" t="s">
+      <c r="AL8" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="105"/>
-      <c r="AQ8" s="103" t="s">
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="107"/>
+      <c r="AQ8" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="105"/>
-    </row>
-    <row r="9" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="106">
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="107"/>
+    </row>
+    <row r="9" spans="2:57" ht="9.9499999999999993" customHeight="1">
+      <c r="B9" s="92">
         <f>STR</f>
         <v>3</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="32"/>
-      <c r="H9" s="88">
+      <c r="H9" s="110">
         <f>CHARACTER_HP</f>
-        <v>95</v>
-      </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="M9" s="88">
+        <v>114</v>
+      </c>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
+      <c r="M9" s="110">
         <f>CHARACTER_ARMOR</f>
         <v>0</v>
       </c>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-      <c r="R9" s="88">
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="112"/>
+      <c r="R9" s="110">
         <f>CHARACTER_AURA</f>
         <v>0</v>
       </c>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="90"/>
-      <c r="W9" s="88">
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="112"/>
+      <c r="W9" s="110">
         <f>CHARACTER_EXPERTISE</f>
         <v>2</v>
       </c>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AB9" s="88">
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AB9" s="110">
         <f>CHARACTER_MOVEMENT</f>
         <v>18</v>
       </c>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="90"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="112"/>
       <c r="AF9" s="31"/>
-      <c r="AG9" s="88">
+      <c r="AG9" s="110">
         <f>CHARACTER_INI</f>
         <v>32</v>
       </c>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="90"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="112"/>
       <c r="AK9" s="31"/>
-      <c r="AL9" s="88" t="str">
+      <c r="AL9" s="110" t="str">
         <f>FEAT_INI</f>
         <v>12</v>
       </c>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="90"/>
-      <c r="AQ9" s="88">
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="112"/>
+      <c r="AQ9" s="110">
         <f>CHARACTER_AP</f>
         <v>5</v>
       </c>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="90"/>
-    </row>
-    <row r="10" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="112"/>
+    </row>
+    <row r="10" spans="2:57" ht="9.9499999999999993" customHeight="1">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="32"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="90"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="90"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="90"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="112"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="112"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="112"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="112"/>
       <c r="AF10" s="31"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="90"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="112"/>
       <c r="AK10" s="31"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="90"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="112"/>
       <c r="AP10" s="31"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="90"/>
-    </row>
-    <row r="11" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="112"/>
+    </row>
+    <row r="11" spans="2:57" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="32"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="93"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="93"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="93"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="115"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="115"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="115"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="115"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="93"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="115"/>
       <c r="AK11" s="31"/>
-      <c r="AL11" s="91"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="93"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="114"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="115"/>
       <c r="AP11" s="31"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="93"/>
-    </row>
-    <row r="12" spans="2:57" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="115"/>
+    </row>
+    <row r="12" spans="2:57" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="37"/>
-      <c r="C12" s="116">
+      <c r="C12" s="88">
         <f>STR_TOTAL</f>
         <v>21</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="38"/>
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
@@ -8115,10 +8118,10 @@
       <c r="AR12" s="39"/>
       <c r="AW12" s="36"/>
     </row>
-    <row r="13" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:57" ht="9.9499999999999993" customHeight="1">
       <c r="B13" s="33"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="36"/>
@@ -8149,7 +8152,7 @@
       <c r="X13" s="40"/>
       <c r="Y13" s="59" t="str">
         <f>INDEX(FEATS,ROW(A1),11)</f>
-        <v>+3</v>
+        <v>+8</v>
       </c>
       <c r="Z13" s="53"/>
       <c r="AA13" s="53"/>
@@ -8177,7 +8180,7 @@
       <c r="AV13" s="98"/>
       <c r="AW13" s="98"/>
     </row>
-    <row r="14" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:57" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="32"/>
@@ -8195,7 +8198,7 @@
       <c r="M14" s="47"/>
       <c r="N14" s="42" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],3,11)</f>
-        <v>1d20 + 16</v>
+        <v>1d20 + 17</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
@@ -8236,13 +8239,13 @@
       <c r="AV14" s="99"/>
       <c r="AW14" s="99"/>
     </row>
-    <row r="15" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="112" t="s">
+    <row r="15" spans="2:57" ht="9.9499999999999993" customHeight="1">
+      <c r="B15" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="32"/>
       <c r="G15" s="36"/>
       <c r="H15" s="46" t="str">
@@ -8297,14 +8300,14 @@
       <c r="AV15" s="36"/>
       <c r="AW15" s="36"/>
     </row>
-    <row r="16" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="106">
+    <row r="16" spans="2:57" ht="9.9499999999999993" customHeight="1">
+      <c r="B16" s="92">
         <f>AGI</f>
         <v>7</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
       <c r="H16" s="46" t="str">
@@ -8339,28 +8342,28 @@
       <c r="AA16" s="55"/>
       <c r="AB16" s="56"/>
       <c r="AC16" s="36"/>
-      <c r="AE16" s="94" t="str">
+      <c r="AE16" s="119" t="str">
         <f>Weapons!AA3</f>
-        <v>Iron Fists: 1d6+0+7+3  INI:8</v>
-      </c>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="94"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="94"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="94"/>
-      <c r="AS16" s="94"/>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="94"/>
-      <c r="AV16" s="94"/>
-      <c r="AW16" s="94"/>
+        <v>Iron Fists: 1d6+0+7+8  INI:8</v>
+      </c>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="119"/>
+      <c r="AH16" s="119"/>
+      <c r="AI16" s="119"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="119"/>
+      <c r="AL16" s="119"/>
+      <c r="AM16" s="119"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="119"/>
+      <c r="AP16" s="119"/>
+      <c r="AQ16" s="119"/>
+      <c r="AR16" s="119"/>
+      <c r="AS16" s="119"/>
+      <c r="AT16" s="119"/>
+      <c r="AU16" s="119"/>
+      <c r="AV16" s="119"/>
+      <c r="AW16" s="119"/>
       <c r="AX16" s="78"/>
       <c r="AY16" s="78"/>
       <c r="AZ16" s="78"/>
@@ -8369,11 +8372,11 @@
       <c r="BC16" s="78"/>
       <c r="BD16" s="20"/>
     </row>
-    <row r="17" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
+    <row r="17" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="32"/>
       <c r="G17" s="36"/>
       <c r="H17" s="46" t="str">
@@ -8435,11 +8438,11 @@
       <c r="BC17" s="49"/>
       <c r="BD17" s="77"/>
     </row>
-    <row r="18" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
+    <row r="18" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="32"/>
       <c r="G18" s="36"/>
       <c r="H18" s="46" t="str">
@@ -8500,13 +8503,13 @@
       <c r="BB18" s="32"/>
       <c r="BC18" s="32"/>
     </row>
-    <row r="19" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:59" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B19" s="34"/>
-      <c r="C19" s="116">
+      <c r="C19" s="88">
         <f>AGI_TOTAL</f>
         <v>62</v>
       </c>
-      <c r="D19" s="117"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="35"/>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
@@ -8562,10 +8565,10 @@
       <c r="AV19" s="36"/>
       <c r="AW19" s="36"/>
     </row>
-    <row r="20" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="B20" s="33"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
@@ -8621,7 +8624,7 @@
       <c r="AV20" s="36"/>
       <c r="AW20" s="36"/>
     </row>
-    <row r="21" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:59" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -8687,13 +8690,13 @@
       <c r="BF21" s="32"/>
       <c r="BG21" s="32"/>
     </row>
-    <row r="22" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="112" t="s">
+    <row r="22" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B22" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
       <c r="H22" s="46" t="str">
@@ -8757,14 +8760,14 @@
       <c r="BF22" s="32"/>
       <c r="BG22" s="32"/>
     </row>
-    <row r="23" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="106">
+    <row r="23" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B23" s="92">
         <f>INU</f>
         <v>3</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
       <c r="H23" s="46" t="str">
@@ -8827,11 +8830,11 @@
       <c r="BF23" s="32"/>
       <c r="BG23" s="32"/>
     </row>
-    <row r="24" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="106"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
+    <row r="24" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
       <c r="H24" s="46" t="str">
@@ -8894,11 +8897,11 @@
       <c r="BF24" s="32"/>
       <c r="BG24" s="32"/>
     </row>
-    <row r="25" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="106"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
+    <row r="25" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
       <c r="H25" s="46" t="str">
@@ -8963,13 +8966,13 @@
       <c r="BF25" s="32"/>
       <c r="BG25" s="32"/>
     </row>
-    <row r="26" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:59" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B26" s="34"/>
-      <c r="C26" s="116">
+      <c r="C26" s="88">
         <f>INU_TOTAL</f>
         <v>22</v>
       </c>
-      <c r="D26" s="117"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="35"/>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
@@ -9036,10 +9039,10 @@
       <c r="BF26" s="32"/>
       <c r="BG26" s="32"/>
     </row>
-    <row r="27" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="B27" s="33"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
@@ -9101,7 +9104,7 @@
       <c r="BF27" s="32"/>
       <c r="BG27" s="32"/>
     </row>
-    <row r="28" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:59" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="32"/>
@@ -9125,18 +9128,18 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="36"/>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="97"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="102"/>
       <c r="AC28" s="36"/>
       <c r="AD28" s="36"/>
       <c r="AE28" s="36"/>
@@ -9166,13 +9169,13 @@
       <c r="BF28" s="32"/>
       <c r="BG28" s="32"/>
     </row>
-    <row r="29" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="112" t="s">
+    <row r="29" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B29" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
       <c r="G29" s="36"/>
       <c r="H29" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,18,1)</f>
@@ -9230,14 +9233,14 @@
       <c r="BF29" s="32"/>
       <c r="BG29" s="32"/>
     </row>
-    <row r="30" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="106">
+    <row r="30" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B30" s="92">
         <f>CHA</f>
         <v>3</v>
       </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
       <c r="G30" s="36"/>
       <c r="H30" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,19,1)</f>
@@ -9302,11 +9305,11 @@
       <c r="BF30" s="32"/>
       <c r="BG30" s="32"/>
     </row>
-    <row r="31" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
+    <row r="31" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
       <c r="G31" s="36"/>
       <c r="H31" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,20,1)</f>
@@ -9371,11 +9374,11 @@
       <c r="BF31" s="32"/>
       <c r="BG31" s="32"/>
     </row>
-    <row r="32" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="106"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
+    <row r="32" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
       <c r="G32" s="36"/>
       <c r="H32" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,21,1)</f>
@@ -9440,13 +9443,13 @@
       <c r="BF32" s="32"/>
       <c r="BG32" s="32"/>
     </row>
-    <row r="33" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:59" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B33" s="34"/>
-      <c r="C33" s="116">
+      <c r="C33" s="88">
         <f>CHA_TOTAL</f>
         <v>22</v>
       </c>
-      <c r="D33" s="117"/>
+      <c r="D33" s="89"/>
       <c r="E33" s="35"/>
       <c r="G33" s="36"/>
       <c r="H33" s="46" t="str">
@@ -9514,10 +9517,10 @@
       <c r="BF33" s="32"/>
       <c r="BG33" s="32"/>
     </row>
-    <row r="34" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="B34" s="33"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="119"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="32"/>
       <c r="G34" s="36"/>
       <c r="H34" s="46" t="str">
@@ -9583,11 +9586,11 @@
       <c r="BF34" s="32"/>
       <c r="BG34" s="32"/>
     </row>
-    <row r="35" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:59" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="G35" s="36"/>
       <c r="H35" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,24,1)</f>
-        <v>Winderness Surv.</v>
+        <v>Wilderness Surv.</v>
       </c>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
@@ -9648,13 +9651,13 @@
       <c r="BF35" s="32"/>
       <c r="BG35" s="32"/>
     </row>
-    <row r="36" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="112" t="s">
+    <row r="36" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B36" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="114"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
       <c r="G36" s="36"/>
       <c r="H36" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,25,1)</f>
@@ -9692,28 +9695,28 @@
       <c r="AB36" s="67"/>
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
-      <c r="AE36" s="94" t="str">
+      <c r="AE36" s="119" t="str">
         <f>"Strength: " &amp; Statistics!$O2</f>
         <v>Strength: 1d10 + 0</v>
       </c>
-      <c r="AF36" s="94"/>
-      <c r="AG36" s="94"/>
-      <c r="AH36" s="94"/>
-      <c r="AI36" s="94"/>
-      <c r="AJ36" s="94"/>
-      <c r="AK36" s="94"/>
-      <c r="AL36" s="94"/>
-      <c r="AM36" s="94"/>
-      <c r="AN36" s="94"/>
-      <c r="AO36" s="94"/>
-      <c r="AP36" s="94"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="94"/>
-      <c r="AS36" s="94"/>
-      <c r="AT36" s="94"/>
-      <c r="AU36" s="94"/>
-      <c r="AV36" s="94"/>
-      <c r="AW36" s="94"/>
+      <c r="AF36" s="119"/>
+      <c r="AG36" s="119"/>
+      <c r="AH36" s="119"/>
+      <c r="AI36" s="119"/>
+      <c r="AJ36" s="119"/>
+      <c r="AK36" s="119"/>
+      <c r="AL36" s="119"/>
+      <c r="AM36" s="119"/>
+      <c r="AN36" s="119"/>
+      <c r="AO36" s="119"/>
+      <c r="AP36" s="119"/>
+      <c r="AQ36" s="119"/>
+      <c r="AR36" s="119"/>
+      <c r="AS36" s="119"/>
+      <c r="AT36" s="119"/>
+      <c r="AU36" s="119"/>
+      <c r="AV36" s="119"/>
+      <c r="AW36" s="119"/>
       <c r="BA36" s="32"/>
       <c r="BB36" s="32"/>
       <c r="BC36" s="32"/>
@@ -9722,14 +9725,14 @@
       <c r="BF36" s="32"/>
       <c r="BG36" s="32"/>
     </row>
-    <row r="37" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="106">
+    <row r="37" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B37" s="92">
         <f>PER</f>
         <v>3</v>
       </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="108"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
       <c r="G37" s="36"/>
       <c r="H37" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,26,1)</f>
@@ -9767,28 +9770,28 @@
       <c r="AB37" s="67"/>
       <c r="AC37" s="36"/>
       <c r="AD37" s="36"/>
-      <c r="AE37" s="94" t="str">
+      <c r="AE37" s="119" t="str">
         <f>"Agility: " &amp; Statistics!$O3</f>
         <v>Agility: 1d20 + 0</v>
       </c>
-      <c r="AF37" s="94"/>
-      <c r="AG37" s="94"/>
-      <c r="AH37" s="94"/>
-      <c r="AI37" s="94"/>
-      <c r="AJ37" s="94"/>
-      <c r="AK37" s="94"/>
-      <c r="AL37" s="94"/>
-      <c r="AM37" s="94"/>
-      <c r="AN37" s="94"/>
-      <c r="AO37" s="94"/>
-      <c r="AP37" s="94"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="94"/>
-      <c r="AS37" s="94"/>
-      <c r="AT37" s="94"/>
-      <c r="AU37" s="94"/>
-      <c r="AV37" s="94"/>
-      <c r="AW37" s="94"/>
+      <c r="AF37" s="119"/>
+      <c r="AG37" s="119"/>
+      <c r="AH37" s="119"/>
+      <c r="AI37" s="119"/>
+      <c r="AJ37" s="119"/>
+      <c r="AK37" s="119"/>
+      <c r="AL37" s="119"/>
+      <c r="AM37" s="119"/>
+      <c r="AN37" s="119"/>
+      <c r="AO37" s="119"/>
+      <c r="AP37" s="119"/>
+      <c r="AQ37" s="119"/>
+      <c r="AR37" s="119"/>
+      <c r="AS37" s="119"/>
+      <c r="AT37" s="119"/>
+      <c r="AU37" s="119"/>
+      <c r="AV37" s="119"/>
+      <c r="AW37" s="119"/>
       <c r="BA37" s="32"/>
       <c r="BB37" s="32"/>
       <c r="BC37" s="32"/>
@@ -9797,11 +9800,11 @@
       <c r="BF37" s="32"/>
       <c r="BG37" s="32"/>
     </row>
-    <row r="38" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108"/>
+    <row r="38" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
       <c r="G38" s="36"/>
       <c r="H38" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,27,1)</f>
@@ -9839,28 +9842,28 @@
       <c r="AB38" s="67"/>
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
-      <c r="AE38" s="94" t="str">
+      <c r="AE38" s="119" t="str">
         <f>"Intuitiuon: " &amp; Statistics!$O4</f>
         <v>Intuitiuon: 1d20 + 0</v>
       </c>
-      <c r="AF38" s="94"/>
-      <c r="AG38" s="94"/>
-      <c r="AH38" s="94"/>
-      <c r="AI38" s="94"/>
-      <c r="AJ38" s="94"/>
-      <c r="AK38" s="94"/>
-      <c r="AL38" s="94"/>
-      <c r="AM38" s="94"/>
-      <c r="AN38" s="94"/>
-      <c r="AO38" s="94"/>
-      <c r="AP38" s="94"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="94"/>
-      <c r="AS38" s="94"/>
-      <c r="AT38" s="94"/>
-      <c r="AU38" s="94"/>
-      <c r="AV38" s="94"/>
-      <c r="AW38" s="94"/>
+      <c r="AF38" s="119"/>
+      <c r="AG38" s="119"/>
+      <c r="AH38" s="119"/>
+      <c r="AI38" s="119"/>
+      <c r="AJ38" s="119"/>
+      <c r="AK38" s="119"/>
+      <c r="AL38" s="119"/>
+      <c r="AM38" s="119"/>
+      <c r="AN38" s="119"/>
+      <c r="AO38" s="119"/>
+      <c r="AP38" s="119"/>
+      <c r="AQ38" s="119"/>
+      <c r="AR38" s="119"/>
+      <c r="AS38" s="119"/>
+      <c r="AT38" s="119"/>
+      <c r="AU38" s="119"/>
+      <c r="AV38" s="119"/>
+      <c r="AW38" s="119"/>
       <c r="BA38" s="32"/>
       <c r="BB38" s="32"/>
       <c r="BC38" s="32"/>
@@ -9869,11 +9872,11 @@
       <c r="BF38" s="32"/>
       <c r="BG38" s="32"/>
     </row>
-    <row r="39" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="106"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="108"/>
+    <row r="39" spans="2:59" ht="9.9499999999999993" customHeight="1">
+      <c r="B39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
       <c r="G39" s="36"/>
       <c r="H39" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,28,1)</f>
@@ -9904,28 +9907,28 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="36"/>
       <c r="AD39" s="36"/>
-      <c r="AE39" s="94" t="str">
+      <c r="AE39" s="119" t="str">
         <f>"Charisma: " &amp; Statistics!$O5</f>
         <v>Charisma: 1d10 + 0</v>
       </c>
-      <c r="AF39" s="94"/>
-      <c r="AG39" s="94"/>
-      <c r="AH39" s="94"/>
-      <c r="AI39" s="94"/>
-      <c r="AJ39" s="94"/>
-      <c r="AK39" s="94"/>
-      <c r="AL39" s="94"/>
-      <c r="AM39" s="94"/>
-      <c r="AN39" s="94"/>
-      <c r="AO39" s="94"/>
-      <c r="AP39" s="94"/>
-      <c r="AQ39" s="94"/>
-      <c r="AR39" s="94"/>
-      <c r="AS39" s="94"/>
-      <c r="AT39" s="94"/>
-      <c r="AU39" s="94"/>
-      <c r="AV39" s="94"/>
-      <c r="AW39" s="94"/>
+      <c r="AF39" s="119"/>
+      <c r="AG39" s="119"/>
+      <c r="AH39" s="119"/>
+      <c r="AI39" s="119"/>
+      <c r="AJ39" s="119"/>
+      <c r="AK39" s="119"/>
+      <c r="AL39" s="119"/>
+      <c r="AM39" s="119"/>
+      <c r="AN39" s="119"/>
+      <c r="AO39" s="119"/>
+      <c r="AP39" s="119"/>
+      <c r="AQ39" s="119"/>
+      <c r="AR39" s="119"/>
+      <c r="AS39" s="119"/>
+      <c r="AT39" s="119"/>
+      <c r="AU39" s="119"/>
+      <c r="AV39" s="119"/>
+      <c r="AW39" s="119"/>
       <c r="BA39" s="32"/>
       <c r="BB39" s="32"/>
       <c r="BC39" s="32"/>
@@ -9934,13 +9937,13 @@
       <c r="BF39" s="32"/>
       <c r="BG39" s="32"/>
     </row>
-    <row r="40" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:59" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="B40" s="34"/>
-      <c r="C40" s="116">
+      <c r="C40" s="88">
         <f>PER_TOTAL</f>
         <v>22</v>
       </c>
-      <c r="D40" s="117"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="35"/>
       <c r="G40" s="36"/>
       <c r="H40" s="46"/>
@@ -9950,28 +9953,28 @@
       <c r="AB40" s="43"/>
       <c r="AC40" s="36"/>
       <c r="AD40" s="36"/>
-      <c r="AE40" s="94" t="str">
+      <c r="AE40" s="119" t="str">
         <f>"Perception: " &amp; Statistics!$O6</f>
         <v>Perception: 1d10 + 0</v>
       </c>
-      <c r="AF40" s="94"/>
-      <c r="AG40" s="94"/>
-      <c r="AH40" s="94"/>
-      <c r="AI40" s="94"/>
-      <c r="AJ40" s="94"/>
-      <c r="AK40" s="94"/>
-      <c r="AL40" s="94"/>
-      <c r="AM40" s="94"/>
-      <c r="AN40" s="94"/>
-      <c r="AO40" s="94"/>
-      <c r="AP40" s="94"/>
-      <c r="AQ40" s="94"/>
-      <c r="AR40" s="94"/>
-      <c r="AS40" s="94"/>
-      <c r="AT40" s="94"/>
-      <c r="AU40" s="94"/>
-      <c r="AV40" s="94"/>
-      <c r="AW40" s="94"/>
+      <c r="AF40" s="119"/>
+      <c r="AG40" s="119"/>
+      <c r="AH40" s="119"/>
+      <c r="AI40" s="119"/>
+      <c r="AJ40" s="119"/>
+      <c r="AK40" s="119"/>
+      <c r="AL40" s="119"/>
+      <c r="AM40" s="119"/>
+      <c r="AN40" s="119"/>
+      <c r="AO40" s="119"/>
+      <c r="AP40" s="119"/>
+      <c r="AQ40" s="119"/>
+      <c r="AR40" s="119"/>
+      <c r="AS40" s="119"/>
+      <c r="AT40" s="119"/>
+      <c r="AU40" s="119"/>
+      <c r="AV40" s="119"/>
+      <c r="AW40" s="119"/>
       <c r="BA40" s="32"/>
       <c r="BB40" s="32"/>
       <c r="BC40" s="32"/>
@@ -9980,10 +9983,10 @@
       <c r="BF40" s="32"/>
       <c r="BG40" s="32"/>
     </row>
-    <row r="41" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="B41" s="33"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="32"/>
       <c r="G41" s="36"/>
       <c r="H41" s="46"/>
@@ -10024,33 +10027,33 @@
       <c r="BF41" s="32"/>
       <c r="BG41" s="32"/>
     </row>
-    <row r="42" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="G42" s="36"/>
-      <c r="H42" s="95" t="s">
+      <c r="H42" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="97"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="102"/>
       <c r="R42" s="36"/>
-      <c r="S42" s="95" t="s">
+      <c r="S42" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="96"/>
-      <c r="X42" s="96"/>
-      <c r="Y42" s="96"/>
-      <c r="Z42" s="96"/>
-      <c r="AA42" s="96"/>
-      <c r="AB42" s="97"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="101"/>
+      <c r="AA42" s="101"/>
+      <c r="AB42" s="102"/>
       <c r="AC42" s="36"/>
       <c r="AD42" s="36"/>
       <c r="AE42" s="36"/>
@@ -10076,7 +10079,7 @@
       <c r="BF42" s="32"/>
       <c r="BG42" s="32"/>
     </row>
-    <row r="43" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="G43" s="36"/>
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
@@ -10124,7 +10127,7 @@
       <c r="BF43" s="32"/>
       <c r="BG43" s="32"/>
     </row>
-    <row r="44" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="B44" s="98" t="s">
         <v>222</v>
       </c>
@@ -10176,7 +10179,7 @@
       <c r="AV44" s="98"/>
       <c r="AW44" s="98"/>
     </row>
-    <row r="45" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="B45" s="99"/>
       <c r="C45" s="99"/>
       <c r="D45" s="99"/>
@@ -10226,13 +10229,13 @@
       <c r="AV45" s="99"/>
       <c r="AW45" s="99"/>
     </row>
-    <row r="46" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="AT46" s="36"/>
       <c r="AU46" s="36"/>
       <c r="AV46" s="36"/>
       <c r="AW46" s="36"/>
     </row>
-    <row r="47" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="B47" s="36" t="s">
         <v>274</v>
       </c>
@@ -10284,7 +10287,7 @@
       <c r="AV47" s="36"/>
       <c r="AW47" s="36"/>
     </row>
-    <row r="48" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:59" ht="9.9499999999999993" customHeight="1">
       <c r="B48" s="36" t="s">
         <v>275</v>
       </c>
@@ -10336,7 +10339,7 @@
       <c r="AV48" s="36"/>
       <c r="AW48" s="36"/>
     </row>
-    <row r="49" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B49" s="36"/>
       <c r="C49" s="36" t="s">
         <v>276</v>
@@ -10388,7 +10391,7 @@
       <c r="AV49" s="36"/>
       <c r="AW49" s="36"/>
     </row>
-    <row r="50" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B50" s="36" t="s">
         <v>277</v>
       </c>
@@ -10440,7 +10443,7 @@
       <c r="AV50" s="36"/>
       <c r="AW50" s="36"/>
     </row>
-    <row r="51" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B51" s="36"/>
       <c r="C51" s="36" t="s">
         <v>278</v>
@@ -10492,7 +10495,7 @@
       <c r="AV51" s="36"/>
       <c r="AW51" s="36"/>
     </row>
-    <row r="52" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B52" s="36" t="s">
         <v>279</v>
       </c>
@@ -10544,9 +10547,9 @@
       <c r="AV52" s="36"/>
       <c r="AW52" s="36"/>
     </row>
-    <row r="53" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B53" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
@@ -10596,9 +10599,9 @@
       <c r="AV53" s="36"/>
       <c r="AW53" s="36"/>
     </row>
-    <row r="54" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B54" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -10648,10 +10651,10 @@
       <c r="AV54" s="36"/>
       <c r="AW54" s="36"/>
     </row>
-    <row r="55" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B55" s="36" t="str">
         <f>"Lightning Reflexes: For 3 CHI you gain " &amp; 3 + CHARACTER_LEVEL &amp; " armor, but only if you do not wear any armor"</f>
-        <v>Lightning Reflexes: For 3 CHI you gain 8 armor, but only if you do not wear any armor</v>
+        <v>Lightning Reflexes: For 3 CHI you gain 9 armor, but only if you do not wear any armor</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -10701,7 +10704,7 @@
       <c r="AV55" s="36"/>
       <c r="AW55" s="36"/>
     </row>
-    <row r="56" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B56" s="36" t="s">
         <v>280</v>
       </c>
@@ -10753,7 +10756,7 @@
       <c r="AV56" s="36"/>
       <c r="AW56" s="36"/>
     </row>
-    <row r="57" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B57" s="36" t="s">
         <v>285</v>
       </c>
@@ -10805,7 +10808,7 @@
       <c r="AV57" s="36"/>
       <c r="AW57" s="36"/>
     </row>
-    <row r="58" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B58" s="36" t="s">
         <v>284</v>
       </c>
@@ -10857,7 +10860,7 @@
       <c r="AV58" s="36"/>
       <c r="AW58" s="36"/>
     </row>
-    <row r="59" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
       <c r="D59" s="36"/>
@@ -10907,7 +10910,7 @@
       <c r="AV59" s="36"/>
       <c r="AW59" s="36"/>
     </row>
-    <row r="60" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
       <c r="D60" s="36"/>
@@ -10957,7 +10960,7 @@
       <c r="AV60" s="36"/>
       <c r="AW60" s="36"/>
     </row>
-    <row r="61" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -11007,7 +11010,7 @@
       <c r="AV61" s="36"/>
       <c r="AW61" s="36"/>
     </row>
-    <row r="62" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
@@ -11057,7 +11060,7 @@
       <c r="AV62" s="36"/>
       <c r="AW62" s="36"/>
     </row>
-    <row r="63" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
@@ -11107,7 +11110,7 @@
       <c r="AV63" s="36"/>
       <c r="AW63" s="36"/>
     </row>
-    <row r="64" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
@@ -11157,7 +11160,7 @@
       <c r="AV64" s="36"/>
       <c r="AW64" s="36"/>
     </row>
-    <row r="65" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
@@ -11207,7 +11210,7 @@
       <c r="AV65" s="36"/>
       <c r="AW65" s="36"/>
     </row>
-    <row r="66" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
       <c r="D66" s="36"/>
@@ -11257,7 +11260,7 @@
       <c r="AV66" s="36"/>
       <c r="AW66" s="36"/>
     </row>
-    <row r="67" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
@@ -11307,7 +11310,7 @@
       <c r="AV67" s="36"/>
       <c r="AW67" s="36"/>
     </row>
-    <row r="68" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
       <c r="D68" s="36"/>
@@ -11357,7 +11360,7 @@
       <c r="AV68" s="36"/>
       <c r="AW68" s="36"/>
     </row>
-    <row r="69" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
       <c r="D69" s="36"/>
@@ -11407,7 +11410,7 @@
       <c r="AV69" s="36"/>
       <c r="AW69" s="36"/>
     </row>
-    <row r="70" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
@@ -11457,7 +11460,7 @@
       <c r="AV70" s="36"/>
       <c r="AW70" s="36"/>
     </row>
-    <row r="71" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
@@ -11507,7 +11510,7 @@
       <c r="AV71" s="36"/>
       <c r="AW71" s="36"/>
     </row>
-    <row r="72" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
@@ -11557,7 +11560,7 @@
       <c r="AV72" s="36"/>
       <c r="AW72" s="36"/>
     </row>
-    <row r="73" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
@@ -11607,7 +11610,7 @@
       <c r="AV73" s="36"/>
       <c r="AW73" s="36"/>
     </row>
-    <row r="74" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
@@ -11657,7 +11660,7 @@
       <c r="AV74" s="36"/>
       <c r="AW74" s="36"/>
     </row>
-    <row r="75" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:49" ht="9.9499999999999993" customHeight="1">
       <c r="B75" s="84"/>
       <c r="C75" s="84"/>
       <c r="D75" s="84"/>
@@ -11707,224 +11710,261 @@
       <c r="AV75" s="84"/>
       <c r="AW75" s="84"/>
     </row>
-    <row r="76" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="2:49" ht="9.9499999999999993" customHeight="1"/>
+    <row r="77" spans="2:49" ht="9.9499999999999993" customHeight="1"/>
+    <row r="78" spans="2:49" ht="9.9499999999999993" customHeight="1"/>
+    <row r="79" spans="2:49" ht="9.9499999999999993" customHeight="1"/>
+    <row r="80" spans="2:49" ht="9.9499999999999993" customHeight="1"/>
+    <row r="81" ht="9.9499999999999993" customHeight="1"/>
+    <row r="82" ht="9.9499999999999993" customHeight="1"/>
+    <row r="83" ht="9.9499999999999993" customHeight="1"/>
+    <row r="84" ht="9.9499999999999993" customHeight="1"/>
+    <row r="85" ht="9.9499999999999993" customHeight="1"/>
+    <row r="86" ht="9.9499999999999993" customHeight="1"/>
+    <row r="87" ht="9.9499999999999993" customHeight="1"/>
+    <row r="88" ht="9.9499999999999993" customHeight="1"/>
+    <row r="89" ht="9.9499999999999993" customHeight="1"/>
+    <row r="90" ht="9.9499999999999993" customHeight="1"/>
+    <row r="91" ht="9.9499999999999993" customHeight="1"/>
+    <row r="92" ht="9.9499999999999993" customHeight="1"/>
+    <row r="93" ht="9.9499999999999993" customHeight="1"/>
+    <row r="94" ht="9.9499999999999993" customHeight="1"/>
+    <row r="95" ht="9.9499999999999993" customHeight="1"/>
+    <row r="96" ht="9.9499999999999993" customHeight="1"/>
+    <row r="97" ht="9.9499999999999993" customHeight="1"/>
+    <row r="98" ht="9.9499999999999993" customHeight="1"/>
+    <row r="99" ht="9.9499999999999993" customHeight="1"/>
+    <row r="100" ht="9.9499999999999993" customHeight="1"/>
+    <row r="101" ht="9.9499999999999993" customHeight="1"/>
+    <row r="102" ht="9.9499999999999993" customHeight="1"/>
+    <row r="103" ht="9.9499999999999993" customHeight="1"/>
+    <row r="104" ht="9.9499999999999993" customHeight="1"/>
+    <row r="105" ht="9.9499999999999993" customHeight="1"/>
+    <row r="106" ht="9.9499999999999993" customHeight="1"/>
+    <row r="107" ht="9.9499999999999993" customHeight="1"/>
+    <row r="108" ht="9.9499999999999993" customHeight="1"/>
+    <row r="109" ht="9.9499999999999993" customHeight="1"/>
+    <row r="110" ht="9.9499999999999993" customHeight="1"/>
+    <row r="111" ht="9.9499999999999993" customHeight="1"/>
+    <row r="112" ht="9.9499999999999993" customHeight="1"/>
+    <row r="113" ht="9.9499999999999993" customHeight="1"/>
+    <row r="114" ht="9.9499999999999993" customHeight="1"/>
+    <row r="115" ht="9.9499999999999993" customHeight="1"/>
+    <row r="116" ht="9.9499999999999993" customHeight="1"/>
+    <row r="117" ht="9.9499999999999993" customHeight="1"/>
+    <row r="118" ht="9.9499999999999993" customHeight="1"/>
+    <row r="119" ht="9.9499999999999993" customHeight="1"/>
+    <row r="120" ht="9.9499999999999993" customHeight="1"/>
+    <row r="121" ht="9.9499999999999993" customHeight="1"/>
+    <row r="122" ht="9.9499999999999993" customHeight="1"/>
+    <row r="123" ht="9.9499999999999993" customHeight="1"/>
+    <row r="124" ht="9.9499999999999993" customHeight="1"/>
+    <row r="125" ht="9.9499999999999993" customHeight="1"/>
+    <row r="126" ht="9.9499999999999993" customHeight="1"/>
+    <row r="127" ht="9.9499999999999993" customHeight="1"/>
+    <row r="128" ht="9.9499999999999993" customHeight="1"/>
+    <row r="129" ht="9.9499999999999993" customHeight="1"/>
+    <row r="130" ht="9.9499999999999993" customHeight="1"/>
+    <row r="131" ht="9.9499999999999993" customHeight="1"/>
+    <row r="132" ht="9.9499999999999993" customHeight="1"/>
+    <row r="133" ht="9.9499999999999993" customHeight="1"/>
+    <row r="134" ht="9.9499999999999993" customHeight="1"/>
+    <row r="135" ht="9.9499999999999993" customHeight="1"/>
+    <row r="136" ht="9.9499999999999993" customHeight="1"/>
+    <row r="137" ht="9.9499999999999993" customHeight="1"/>
+    <row r="138" ht="9.9499999999999993" customHeight="1"/>
+    <row r="139" ht="9.9499999999999993" customHeight="1"/>
+    <row r="140" ht="9.9499999999999993" customHeight="1"/>
+    <row r="141" ht="9.9499999999999993" customHeight="1"/>
+    <row r="142" ht="9.9499999999999993" customHeight="1"/>
+    <row r="143" ht="9.9499999999999993" customHeight="1"/>
+    <row r="144" ht="9.9499999999999993" customHeight="1"/>
+    <row r="145" ht="9.9499999999999993" customHeight="1"/>
+    <row r="146" ht="9.9499999999999993" customHeight="1"/>
+    <row r="147" ht="9.9499999999999993" customHeight="1"/>
+    <row r="148" ht="9.9499999999999993" customHeight="1"/>
+    <row r="149" ht="9.9499999999999993" customHeight="1"/>
+    <row r="150" ht="9.9499999999999993" customHeight="1"/>
+    <row r="151" ht="9.9499999999999993" customHeight="1"/>
+    <row r="152" ht="9.9499999999999993" customHeight="1"/>
+    <row r="153" ht="9.9499999999999993" customHeight="1"/>
+    <row r="154" ht="9.9499999999999993" customHeight="1"/>
+    <row r="155" ht="9.9499999999999993" customHeight="1"/>
+    <row r="156" ht="9.9499999999999993" customHeight="1"/>
+    <row r="157" ht="9.9499999999999993" customHeight="1"/>
+    <row r="158" ht="9.9499999999999993" customHeight="1"/>
+    <row r="159" ht="9.9499999999999993" customHeight="1"/>
+    <row r="160" ht="9.9499999999999993" customHeight="1"/>
+    <row r="161" ht="9.9499999999999993" customHeight="1"/>
+    <row r="162" ht="9.9499999999999993" customHeight="1"/>
+    <row r="163" ht="9.9499999999999993" customHeight="1"/>
+    <row r="164" ht="9.9499999999999993" customHeight="1"/>
+    <row r="165" ht="9.9499999999999993" customHeight="1"/>
+    <row r="166" ht="9.9499999999999993" customHeight="1"/>
+    <row r="167" ht="9.9499999999999993" customHeight="1"/>
+    <row r="168" ht="9.9499999999999993" customHeight="1"/>
+    <row r="169" ht="9.9499999999999993" customHeight="1"/>
+    <row r="170" ht="9.9499999999999993" customHeight="1"/>
+    <row r="171" ht="9.9499999999999993" customHeight="1"/>
+    <row r="172" ht="9.9499999999999993" customHeight="1"/>
+    <row r="173" ht="9.9499999999999993" customHeight="1"/>
+    <row r="174" ht="9.9499999999999993" customHeight="1"/>
+    <row r="175" ht="9.9499999999999993" customHeight="1"/>
+    <row r="176" ht="9.9499999999999993" customHeight="1"/>
+    <row r="177" ht="9.9499999999999993" customHeight="1"/>
+    <row r="178" ht="9.9499999999999993" customHeight="1"/>
+    <row r="179" ht="9.9499999999999993" customHeight="1"/>
+    <row r="180" ht="9.9499999999999993" customHeight="1"/>
+    <row r="181" ht="9.9499999999999993" customHeight="1"/>
+    <row r="182" ht="9.9499999999999993" customHeight="1"/>
+    <row r="183" ht="9.9499999999999993" customHeight="1"/>
+    <row r="184" ht="9.9499999999999993" customHeight="1"/>
+    <row r="185" ht="9.9499999999999993" customHeight="1"/>
+    <row r="186" ht="9.9499999999999993" customHeight="1"/>
+    <row r="187" ht="9.9499999999999993" customHeight="1"/>
+    <row r="188" ht="9.9499999999999993" customHeight="1"/>
+    <row r="189" ht="9.9499999999999993" customHeight="1"/>
+    <row r="190" ht="9.9499999999999993" customHeight="1"/>
+    <row r="191" ht="9.9499999999999993" customHeight="1"/>
+    <row r="192" ht="9.9499999999999993" customHeight="1"/>
+    <row r="193" ht="9.9499999999999993" customHeight="1"/>
+    <row r="194" ht="9.9499999999999993" customHeight="1"/>
+    <row r="195" ht="9.9499999999999993" customHeight="1"/>
+    <row r="196" ht="9.9499999999999993" customHeight="1"/>
+    <row r="197" ht="9.9499999999999993" customHeight="1"/>
+    <row r="198" ht="9.9499999999999993" customHeight="1"/>
+    <row r="199" ht="9.9499999999999993" customHeight="1"/>
+    <row r="200" ht="9.9499999999999993" customHeight="1"/>
+    <row r="201" ht="9.9499999999999993" customHeight="1"/>
+    <row r="202" ht="9.9499999999999993" customHeight="1"/>
+    <row r="203" ht="9.9499999999999993" customHeight="1"/>
+    <row r="204" ht="9.9499999999999993" customHeight="1"/>
+    <row r="205" ht="9.9499999999999993" customHeight="1"/>
+    <row r="206" ht="9.9499999999999993" customHeight="1"/>
+    <row r="207" ht="9.9499999999999993" customHeight="1"/>
+    <row r="208" ht="9.9499999999999993" customHeight="1"/>
+    <row r="209" ht="15.95" customHeight="1"/>
+    <row r="210" ht="15.95" customHeight="1"/>
+    <row r="211" ht="15.95" customHeight="1"/>
+    <row r="212" ht="15.95" customHeight="1"/>
+    <row r="213" ht="15.95" customHeight="1"/>
+    <row r="214" ht="15.95" customHeight="1"/>
+    <row r="215" ht="15.95" customHeight="1"/>
+    <row r="216" ht="15.95" customHeight="1"/>
+    <row r="217" ht="15.95" customHeight="1"/>
+    <row r="218" ht="15.95" customHeight="1"/>
+    <row r="219" ht="15.95" customHeight="1"/>
+    <row r="220" ht="15.95" customHeight="1"/>
+    <row r="221" ht="15.95" customHeight="1"/>
+    <row r="222" ht="15.95" customHeight="1"/>
+    <row r="223" ht="15.95" customHeight="1"/>
+    <row r="224" ht="15.95" customHeight="1"/>
+    <row r="225" ht="15.95" customHeight="1"/>
+    <row r="226" ht="15.95" customHeight="1"/>
+    <row r="227" ht="15.95" customHeight="1"/>
+    <row r="228" ht="15.95" customHeight="1"/>
+    <row r="229" ht="15.95" customHeight="1"/>
+    <row r="230" ht="15.95" customHeight="1"/>
+    <row r="231" ht="15.95" customHeight="1"/>
+    <row r="232" ht="15.95" customHeight="1"/>
+    <row r="233" ht="15.95" customHeight="1"/>
+    <row r="234" ht="15.95" customHeight="1"/>
+    <row r="235" ht="15.95" customHeight="1"/>
+    <row r="236" ht="15.95" customHeight="1"/>
+    <row r="237" ht="15.95" customHeight="1"/>
+    <row r="238" ht="15.95" customHeight="1"/>
+    <row r="239" ht="15.95" customHeight="1"/>
+    <row r="240" ht="15.95" customHeight="1"/>
+    <row r="241" ht="15.95" customHeight="1"/>
+    <row r="242" ht="15.95" customHeight="1"/>
+    <row r="243" ht="15.95" customHeight="1"/>
+    <row r="244" ht="15.95" customHeight="1"/>
+    <row r="245" ht="15.95" customHeight="1"/>
+    <row r="246" ht="15.95" customHeight="1"/>
+    <row r="247" ht="15.95" customHeight="1"/>
+    <row r="248" ht="15.95" customHeight="1"/>
+    <row r="249" ht="15.95" customHeight="1"/>
+    <row r="250" ht="15.95" customHeight="1"/>
+    <row r="251" ht="15.95" customHeight="1"/>
+    <row r="252" ht="15.95" customHeight="1"/>
+    <row r="253" ht="15.95" customHeight="1"/>
+    <row r="254" ht="15.95" customHeight="1"/>
+    <row r="255" ht="15.95" customHeight="1"/>
+    <row r="256" ht="15.95" customHeight="1"/>
+    <row r="257" ht="15.95" customHeight="1"/>
+    <row r="258" ht="15.95" customHeight="1"/>
+    <row r="259" ht="15.95" customHeight="1"/>
+    <row r="260" ht="15.95" customHeight="1"/>
+    <row r="261" ht="15.95" customHeight="1"/>
+    <row r="262" ht="15.95" customHeight="1"/>
+    <row r="263" ht="15.95" customHeight="1"/>
+    <row r="264" ht="15.95" customHeight="1"/>
+    <row r="265" ht="15.95" customHeight="1"/>
+    <row r="266" ht="15.95" customHeight="1"/>
+    <row r="267" ht="15.95" customHeight="1"/>
+    <row r="268" ht="15.95" customHeight="1"/>
+    <row r="269" ht="15.95" customHeight="1"/>
+    <row r="270" ht="15.95" customHeight="1"/>
+    <row r="271" ht="15.95" customHeight="1"/>
+    <row r="272" ht="15.95" customHeight="1"/>
+    <row r="273" ht="15.95" customHeight="1"/>
+    <row r="274" ht="15.95" customHeight="1"/>
+    <row r="275" ht="15.95" customHeight="1"/>
+    <row r="276" ht="15.95" customHeight="1"/>
+    <row r="277" ht="15.95" customHeight="1"/>
+    <row r="278" ht="15.95" customHeight="1"/>
+    <row r="279" ht="15.95" customHeight="1"/>
+    <row r="280" ht="15.95" customHeight="1"/>
+    <row r="281" ht="15.95" customHeight="1"/>
+    <row r="282" ht="15.95" customHeight="1"/>
+    <row r="283" ht="15.95" customHeight="1"/>
+    <row r="284" ht="15.95" customHeight="1"/>
+    <row r="285" ht="15.95" customHeight="1"/>
+    <row r="286" ht="15.95" customHeight="1"/>
+    <row r="287" ht="15.95" customHeight="1"/>
+    <row r="288" ht="15.95" customHeight="1"/>
+    <row r="289" ht="15.95" customHeight="1"/>
+    <row r="290" ht="15.95" customHeight="1"/>
+    <row r="291" ht="15.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="W9:Z11"/>
+    <mergeCell ref="R9:U11"/>
+    <mergeCell ref="M9:P11"/>
+    <mergeCell ref="AE16:AW16"/>
+    <mergeCell ref="H42:Q42"/>
+    <mergeCell ref="AE22:AW23"/>
+    <mergeCell ref="AB9:AE11"/>
+    <mergeCell ref="AG9:AJ11"/>
+    <mergeCell ref="AE33:AW34"/>
+    <mergeCell ref="AE36:AW36"/>
+    <mergeCell ref="AE37:AW37"/>
+    <mergeCell ref="AE38:AW38"/>
+    <mergeCell ref="AE39:AW39"/>
+    <mergeCell ref="AE40:AW40"/>
+    <mergeCell ref="AS2:AV5"/>
+    <mergeCell ref="AS6:AV6"/>
+    <mergeCell ref="AN2:AQ5"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="S2:Z3"/>
+    <mergeCell ref="AB2:AI3"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="B2:O4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="AE13:AW14"/>
+    <mergeCell ref="AQ9:AT11"/>
+    <mergeCell ref="AL9:AO11"/>
+    <mergeCell ref="H9:K11"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="B9:E11"/>
     <mergeCell ref="B15:E15"/>
@@ -11941,43 +11981,6 @@
     <mergeCell ref="B30:E32"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="S2:Z3"/>
-    <mergeCell ref="AB2:AI3"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="B2:O4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="AE13:AW14"/>
-    <mergeCell ref="AQ9:AT11"/>
-    <mergeCell ref="AL9:AO11"/>
-    <mergeCell ref="H9:K11"/>
-    <mergeCell ref="AS2:AV5"/>
-    <mergeCell ref="AS6:AV6"/>
-    <mergeCell ref="AN2:AQ5"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="W9:Z11"/>
-    <mergeCell ref="R9:U11"/>
-    <mergeCell ref="M9:P11"/>
-    <mergeCell ref="AE16:AW16"/>
-    <mergeCell ref="H42:Q42"/>
-    <mergeCell ref="AE22:AW23"/>
-    <mergeCell ref="AB9:AE11"/>
-    <mergeCell ref="AG9:AJ11"/>
-    <mergeCell ref="AE33:AW34"/>
-    <mergeCell ref="AE36:AW36"/>
-    <mergeCell ref="AE37:AW37"/>
-    <mergeCell ref="AE38:AW38"/>
-    <mergeCell ref="AE39:AW39"/>
-    <mergeCell ref="AE40:AW40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11995,12 +11998,12 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -12056,7 +12059,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -12092,7 +12095,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -12132,7 +12135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -12172,7 +12175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -12252,7 +12255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
@@ -12292,7 +12295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
@@ -12332,7 +12335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>95</v>
       </c>
@@ -12412,7 +12415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
@@ -12452,7 +12455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -12492,7 +12495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -12532,7 +12535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -12555,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -12578,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -12601,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -12624,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -12647,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -12670,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -12693,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -12716,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -12739,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -12762,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -12785,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -12808,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -12831,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -12854,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -12877,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -12900,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -12923,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -12946,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -12969,7 +12972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -13008,15 +13011,15 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="18" width="13.33203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="18" width="13.375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -13075,7 +13078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -13131,7 +13134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -13161,7 +13164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -13221,7 +13224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -13251,7 +13254,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -13281,7 +13284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
@@ -13311,7 +13314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -13341,7 +13344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>190</v>
       </c>
@@ -13371,7 +13374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>191</v>
       </c>
@@ -13401,7 +13404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>192</v>
       </c>
@@ -13431,7 +13434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
@@ -13461,7 +13464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -13491,7 +13494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>195</v>
       </c>
@@ -13521,7 +13524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>196</v>
       </c>
@@ -13551,7 +13554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>197</v>
       </c>
@@ -13581,7 +13584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>198</v>
       </c>
@@ -13611,7 +13614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>199</v>
       </c>
@@ -13641,229 +13644,229 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="T21" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="T22" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="T23" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="T24" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="T25" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="T26" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="T27" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="T28" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="T29" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="T30" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="T31" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="T32" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="20:20">
       <c r="T33" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="20:20">
       <c r="T34" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="20:20">
       <c r="T35" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="20:20">
       <c r="T36" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="20:20">
       <c r="T37" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="20:20">
       <c r="T38" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="20:20">
       <c r="T39" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="20:20">
       <c r="T40" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="20:20">
       <c r="T41" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="20:20">
       <c r="T42" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="20:20">
       <c r="T43" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="20:20">
       <c r="T44" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="20:20">
       <c r="T45" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="20:20">
       <c r="T46" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="20:20">
       <c r="T47" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="20:20">
       <c r="T48" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="20:20">
       <c r="T49" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="20:20">
       <c r="T50" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="20:20">
       <c r="T51" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="20:20">
       <c r="T52" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="20:20">
       <c r="T53" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="20:20">
       <c r="T54" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="20:20">
       <c r="T55" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="20:20">
       <c r="T56" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="20:20">
       <c r="T57" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="20:20">
       <c r="T58" s="1">
         <f>SUM(Table7[[#This Row],[STR]:[PER]])</f>
         <v>0</v>
@@ -13885,13 +13888,13 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
@@ -13939,7 +13942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -13987,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="8">
         <v>20</v>
       </c>
@@ -14036,7 +14039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="8">
         <v>25</v>
       </c>
@@ -14085,7 +14088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="8">
         <v>35</v>
       </c>
@@ -14134,7 +14137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="8">
         <v>50</v>
       </c>
@@ -14182,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="8">
         <v>70</v>
       </c>
@@ -14230,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="8">
         <v>95</v>
       </c>
@@ -14278,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="8">
         <v>125</v>
       </c>
@@ -14326,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="8">
         <v>160</v>
       </c>
@@ -14374,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="8">
         <v>200</v>
       </c>
@@ -14395,7 +14398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="8">
         <v>245</v>
       </c>
@@ -14416,7 +14419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="8">
         <v>290</v>
       </c>
@@ -14437,7 +14440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="8">
         <v>345</v>
       </c>
@@ -14458,7 +14461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="8">
         <v>405</v>
       </c>
@@ -14469,13 +14472,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="5">
         <f>VLOOKUP(XP,A2:B15,2,TRUE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -14498,9 +14501,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -14508,7 +14511,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14516,7 +14519,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -14524,7 +14527,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>204</v>
       </c>
@@ -14538,51 +14541,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8280EFA-ECF3-804F-AF7A-CBB70278A61B}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="10.875" style="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="21.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="1"/>
+    <col min="6" max="16" width="10.875" style="1"/>
+    <col min="17" max="17" width="21.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="1"/>
     <col min="19" max="19" width="80.5" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="20" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I1" s="124" t="s">
+    <row r="1" spans="1:19">
+      <c r="I1" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="123"/>
+      <c r="C2" s="121"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
       <c r="O2" s="11"/>
       <c r="Q2" s="1" t="s">
         <v>135</v>
@@ -14594,15 +14597,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="120">
+      <c r="B3" s="123">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,2,TRUE)</f>
-        <v>5</v>
-      </c>
-      <c r="C3" s="121"/>
+        <v>6</v>
+      </c>
+      <c r="C3" s="124"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -14624,14 +14627,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="121"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14645,38 +14648,45 @@
       </c>
       <c r="K4" s="6">
         <f>TOTAL_XP_EARNED</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L4" s="6">
         <f>SUM(I4:K4)</f>
-        <v>80</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>43570</v>
+      </c>
+      <c r="R4" s="10">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="121"/>
+      <c r="C5" s="124"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="122">
+      <c r="B6" s="120">
         <f>SUM(D6:E6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="123"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="2">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,3,TRUE)</f>
         <v>2</v>
@@ -14711,15 +14721,15 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="120">
+      <c r="B7" s="123">
         <f>SUM(D7,F7) * IF(CHARACTER_LEVEL &gt; 0, CHARACTER_LEVEL, 1)</f>
-        <v>95</v>
-      </c>
-      <c r="C7" s="121"/>
+        <v>114</v>
+      </c>
+      <c r="C7" s="124"/>
       <c r="D7" s="2">
         <f>STR * E7 + AGI + INU + CHA + PER</f>
         <v>19</v>
@@ -14743,7 +14753,7 @@
       </c>
       <c r="K7" s="6">
         <f>FEAT_XP</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L7" s="6">
         <f>RESISTANCES_XP</f>
@@ -14758,20 +14768,20 @@
       </c>
       <c r="O7" s="6">
         <f>SUM(I7:N7)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="122">
+      <c r="B8" s="120">
         <f>SUM(D8:E8)</f>
         <v>18</v>
       </c>
-      <c r="C8" s="123"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="2">
         <v>10</v>
       </c>
@@ -14784,15 +14794,15 @@
       <c r="Q8" s="17"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="123">
         <f>FEAT_ARMOR</f>
         <v>0</v>
       </c>
-      <c r="C9" s="121"/>
+      <c r="C9" s="124"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -14806,30 +14816,30 @@
       <c r="Q9" s="17"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="122">
+      <c r="B10" s="120">
         <f>FEAT_AURA</f>
         <v>0</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="121"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="120">
+      <c r="B11" s="123">
         <f>D11+E11</f>
         <v>32</v>
       </c>
-      <c r="C11" s="121"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="2">
         <v>20</v>
       </c>
@@ -14842,15 +14852,15 @@
       <c r="Q11" s="17"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="122">
+      <c r="B12" s="120">
         <f>D12+E12</f>
         <v>5</v>
       </c>
-      <c r="C12" s="123"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="2">
         <v>3</v>
       </c>
@@ -14863,191 +14873,200 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="13"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="12"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="13"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="12"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="121"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="13"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="12"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="121"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="13"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="12"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="123"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="13"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="Q22" s="17"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="Q23" s="17"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="Q24" s="17"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="Q25" s="17"/>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="Q26" s="17"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="Q27" s="17"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="Q28" s="17"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="Q29" s="17"/>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="Q30" s="17"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="Q31" s="17"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="Q32" s="17"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:18">
       <c r="Q33" s="17"/>
       <c r="R33" s="10"/>
     </row>
-    <row r="34" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:18">
       <c r="Q34" s="17"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:18">
       <c r="Q35" s="17"/>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:18">
       <c r="Q36" s="17"/>
       <c r="R36" s="10"/>
     </row>
-    <row r="37" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:18">
       <c r="Q37" s="17"/>
       <c r="R37" s="10"/>
     </row>
-    <row r="38" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:18">
       <c r="Q38" s="17"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:18">
       <c r="Q39" s="17"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="17:18">
       <c r="Q40" s="17"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:18">
       <c r="Q41" s="17"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:18">
       <c r="Q42" s="17"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:18">
       <c r="Q43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="R43" s="10">
         <f>SUBTOTAL(109,Table11[XP])</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="I1:N2"/>
     <mergeCell ref="B2:C2"/>
@@ -15060,15 +15079,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15104,18 +15114,18 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="15.1640625" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="11.33203125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="21.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="11" width="10.875" style="2"/>
+    <col min="12" max="12" width="11.375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="10.875" style="1"/>
+    <col min="15" max="15" width="21.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -15162,7 +15172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -15217,7 +15227,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -15272,7 +15282,7 @@
         <v>1d20 + 0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -15327,7 +15337,7 @@
         <v>1d20 + 0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -15381,7 +15391,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -15436,7 +15446,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -15463,42 +15473,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="291" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="1d10">
+    <cfRule type="containsText" dxfId="290" priority="7" operator="containsText" text="1d10">
       <formula>NOT(ISERROR(SEARCH("1d10",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L6 H2:L3 I4:L4">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15522,21 +15532,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="2" customWidth="1"/>
     <col min="3" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="10" width="12.1640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="12.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="23" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -15571,7 +15581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15611,7 +15621,7 @@
         <v>1d10 + 3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -15640,17 +15650,17 @@
       </c>
       <c r="I3" s="2">
         <f>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H3:J3) + 3 + 5</f>
-        <v>1d20 + 16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1d20 + 17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -15689,7 +15699,7 @@
         <v>1d20 + 10</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -15728,7 +15738,7 @@
         <v>1d20 + 10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -15767,7 +15777,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -15806,7 +15816,7 @@
         <v>1d20 + 0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -15858,7 +15868,7 @@
       <c r="X8" s="48"/>
       <c r="Y8" s="48"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -15910,7 +15920,7 @@
       <c r="X9" s="48"/>
       <c r="Y9" s="48"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -15961,7 +15971,7 @@
       <c r="X10" s="49"/>
       <c r="Y10" s="48"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -16012,7 +16022,7 @@
       <c r="X11" s="49"/>
       <c r="Y11" s="48"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -16063,7 +16073,7 @@
       <c r="X12" s="49"/>
       <c r="Y12" s="48"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -16114,7 +16124,7 @@
       <c r="X13" s="49"/>
       <c r="Y13" s="48"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -16165,7 +16175,7 @@
       <c r="X14" s="49"/>
       <c r="Y14" s="48"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -16216,7 +16226,7 @@
       <c r="X15" s="49"/>
       <c r="Y15" s="48"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -16267,7 +16277,7 @@
       <c r="X16" s="49"/>
       <c r="Y16" s="48"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -16318,7 +16328,7 @@
       <c r="X17" s="49"/>
       <c r="Y17" s="48"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -16369,9 +16379,9 @@
       <c r="X18" s="49"/>
       <c r="Y18" s="48"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>54</v>
@@ -16420,7 +16430,7 @@
       <c r="X19" s="49"/>
       <c r="Y19" s="48"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -16471,7 +16481,7 @@
       <c r="X20" s="49"/>
       <c r="Y20" s="48"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -16522,7 +16532,7 @@
       <c r="X21" s="49"/>
       <c r="Y21" s="48"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -16573,7 +16583,7 @@
       <c r="X22" s="49"/>
       <c r="Y22" s="48"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -16624,9 +16634,9 @@
       <c r="X23" s="49"/>
       <c r="Y23" s="48"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
@@ -16675,7 +16685,7 @@
       <c r="X24" s="49"/>
       <c r="Y24" s="48"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -16726,7 +16736,7 @@
       <c r="X25" s="49"/>
       <c r="Y25" s="48"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -16777,7 +16787,7 @@
       <c r="X26" s="49"/>
       <c r="Y26" s="48"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
@@ -16828,7 +16838,7 @@
       <c r="X27" s="49"/>
       <c r="Y27" s="48"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -16879,7 +16889,7 @@
       <c r="X28" s="49"/>
       <c r="Y28" s="48"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="G29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1d10</v>
@@ -16912,7 +16922,7 @@
       <c r="X29" s="49"/>
       <c r="Y29" s="48"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="G30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1d10</v>
@@ -16945,7 +16955,7 @@
       <c r="X30" s="49"/>
       <c r="Y30" s="48"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="G31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1d10</v>
@@ -16978,7 +16988,7 @@
       <c r="X31" s="49"/>
       <c r="Y31" s="48"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="G32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1d10</v>
@@ -17011,7 +17021,7 @@
       <c r="X32" s="49"/>
       <c r="Y32" s="48"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="G33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1d10</v>
@@ -17044,7 +17054,7 @@
       <c r="X33" s="49"/>
       <c r="Y33" s="48"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="G34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1d10</v>
@@ -17077,7 +17087,7 @@
       <c r="X34" s="49"/>
       <c r="Y34" s="48"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -17115,7 +17125,7 @@
       <c r="X35" s="49"/>
       <c r="Y35" s="48"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="M36" s="48"/>
       <c r="O36" s="2"/>
       <c r="P36" s="49"/>
@@ -17129,7 +17139,7 @@
       <c r="X36" s="49"/>
       <c r="Y36" s="48"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="M37" s="48"/>
       <c r="O37" s="2"/>
       <c r="P37" s="49"/>
@@ -17143,7 +17153,7 @@
       <c r="X37" s="49"/>
       <c r="Y37" s="48"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="M38" s="48"/>
       <c r="O38" s="2"/>
       <c r="P38" s="49"/>
@@ -17157,7 +17167,7 @@
       <c r="X38" s="49"/>
       <c r="Y38" s="48"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="M39" s="48"/>
       <c r="O39" s="2"/>
       <c r="P39" s="49"/>
@@ -17171,7 +17181,7 @@
       <c r="X39" s="49"/>
       <c r="Y39" s="48"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="M40" s="48"/>
       <c r="O40" s="2"/>
       <c r="P40" s="49"/>
@@ -17185,7 +17195,7 @@
       <c r="X40" s="49"/>
       <c r="Y40" s="48"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="M41" s="48"/>
       <c r="O41" s="2"/>
       <c r="P41" s="49"/>
@@ -17199,7 +17209,7 @@
       <c r="X41" s="49"/>
       <c r="Y41" s="48"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="M42" s="48"/>
       <c r="O42" s="2"/>
       <c r="P42" s="49"/>
@@ -17213,7 +17223,7 @@
       <c r="X42" s="49"/>
       <c r="Y42" s="48"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="M43" s="48"/>
       <c r="N43" s="48"/>
       <c r="O43" s="49"/>
@@ -17228,7 +17238,7 @@
       <c r="X43" s="49"/>
       <c r="Y43" s="48"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="M44" s="48"/>
       <c r="N44" s="48"/>
       <c r="O44" s="48"/>
@@ -17245,22 +17255,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F25 C31:F34">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="251" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K25 H31:K34">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F30">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="249" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:K30">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17287,17 +17297,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="2" customWidth="1"/>
     <col min="3" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="10" width="12.1640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="12.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="23" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -17332,7 +17342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>175</v>
       </c>
@@ -17372,7 +17382,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -17411,7 +17421,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
@@ -17450,7 +17460,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>170</v>
       </c>
@@ -17489,7 +17499,7 @@
         <v>1d20 + 0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>172</v>
       </c>
@@ -17528,7 +17538,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
@@ -17567,7 +17577,7 @@
         <v>1d20 + 0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>174</v>
       </c>
@@ -17608,7 +17618,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>177</v>
       </c>
@@ -17649,7 +17659,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>178</v>
       </c>
@@ -17690,7 +17700,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="G11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1d10</v>
@@ -17713,7 +17723,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="G12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1d10</v>
@@ -17736,7 +17746,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="G13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1d10</v>
@@ -17759,7 +17769,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="G14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1d10</v>
@@ -17782,7 +17792,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="G15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1d10</v>
@@ -17805,7 +17815,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="G16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1d10</v>
@@ -17828,7 +17838,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -17856,12 +17866,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F16">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="234" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17885,17 +17895,17 @@
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
-    <col min="2" max="12" width="11.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="12" width="11.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="44.1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -17939,12 +17949,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <f>WEAPON_DMG</f>
@@ -17959,7 +17969,7 @@
       </c>
       <c r="F2" s="2">
         <f>SUM(Table9[[#This Row],[Rank]:[Special]])</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -17971,21 +17981,21 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2">
         <f>SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]]</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>Table9[[#This Row],[Prefix]] &amp; Table9[[#This Row],[CALC]]&amp; Table9[[#This Row],[Postfix]]</f>
-        <v>+3</v>
+        <v>+8</v>
       </c>
       <c r="L2" s="2">
         <f>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -18031,7 +18041,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -18074,7 +18084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -18119,7 +18129,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -18164,7 +18174,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
@@ -18209,7 +18219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -18255,7 +18265,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
@@ -18300,7 +18310,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
@@ -18345,7 +18355,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -18391,7 +18401,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
@@ -18437,7 +18447,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -18477,7 +18487,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -18520,7 +18530,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>209</v>
       </c>
@@ -18559,7 +18569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -18593,7 +18603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -18627,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="2">
         <v>0</v>
       </c>
@@ -18661,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="2">
         <v>0</v>
       </c>
@@ -18695,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="79"/>
       <c r="C20" s="79"/>
       <c r="D20" s="79"/>
@@ -18708,46 +18718,46 @@
       <c r="K20" s="79"/>
       <c r="L20" s="79">
         <f>SUM(Table9[XP])</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15">
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15">
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:15">
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:15">
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="15:15">
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="15:15">
       <c r="O38" s="2"/>
     </row>
   </sheetData>
@@ -18770,17 +18780,17 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="16" width="12.5" style="1" customWidth="1"/>
-    <col min="17" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="67.1640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="21" width="10.875" style="1"/>
+    <col min="22" max="22" width="67.125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="C1" s="125" t="s">
         <v>62</v>
       </c>
@@ -18807,7 +18817,7 @@
       <c r="V1" s="28"/>
       <c r="W1" s="28"/>
     </row>
-    <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="42" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>138</v>
       </c>
@@ -18875,7 +18885,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -18938,7 +18948,7 @@
       </c>
       <c r="V3" s="22"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -19006,7 +19016,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -19074,7 +19084,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>144</v>
       </c>
@@ -19142,7 +19152,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
@@ -19210,7 +19220,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
@@ -19278,7 +19288,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>146</v>
       </c>
@@ -19346,7 +19356,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -19409,7 +19419,7 @@
       </c>
       <c r="V10" s="22"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -19472,7 +19482,7 @@
       </c>
       <c r="V11" s="22"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>150</v>
       </c>
@@ -19535,7 +19545,7 @@
       </c>
       <c r="V12" s="22"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
@@ -19598,7 +19608,7 @@
       </c>
       <c r="V13" s="22"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -19661,7 +19671,7 @@
       </c>
       <c r="V14" s="22"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
@@ -19724,7 +19734,7 @@
       </c>
       <c r="V15" s="22"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>137</v>
       </c>
@@ -19787,7 +19797,7 @@
       </c>
       <c r="V16" s="22"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -19850,7 +19860,7 @@
       </c>
       <c r="V17" s="22"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
@@ -19913,7 +19923,7 @@
       </c>
       <c r="V18" s="22"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>137</v>
       </c>
@@ -19976,7 +19986,7 @@
       </c>
       <c r="V19" s="22"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -20039,7 +20049,7 @@
       </c>
       <c r="V20" s="22"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
@@ -20102,7 +20112,7 @@
       </c>
       <c r="V21" s="22"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -20183,7 +20193,7 @@
       </c>
       <c r="V22" s="85"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="B24" s="1" t="s">
         <v>163</v>
       </c>
@@ -20200,7 +20210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -20223,7 +20233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>168</v>
       </c>
@@ -20247,7 +20257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="75" t="s">
         <v>207</v>
       </c>
@@ -20312,23 +20322,23 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
     <col min="6" max="16" width="12.5" style="1" customWidth="1"/>
-    <col min="17" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
-    <col min="21" max="25" width="10.83203125" style="1"/>
+    <col min="17" max="19" width="10.875" style="1"/>
+    <col min="20" max="20" width="9.375" style="1" customWidth="1"/>
+    <col min="21" max="25" width="10.875" style="1"/>
     <col min="26" max="26" width="10.5" style="1" customWidth="1"/>
     <col min="27" max="27" width="61" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="28" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="C1" s="125" t="s">
         <v>105</v>
       </c>
@@ -20357,7 +20367,7 @@
       <c r="V1" s="125"/>
       <c r="W1" s="125"/>
     </row>
-    <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="42" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -20440,7 +20450,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>
@@ -20521,13 +20531,13 @@
       </c>
       <c r="AA3" s="77" t="str">
         <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] &amp; "+" &amp; AGI &amp; FEAT_DMG &amp; "  INI:" &amp; Table1218[[#This Row],[INI]]</f>
-        <v>Iron Fists: 1d6+0+7+3  INI:8</v>
+        <v>Iron Fists: 1d6+0+7+8  INI:8</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -20597,7 +20607,7 @@
       </c>
       <c r="AA4" s="77"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
@@ -20667,7 +20677,7 @@
       </c>
       <c r="AA5" s="77"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -20737,7 +20747,7 @@
       </c>
       <c r="AA6" s="77"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -20807,7 +20817,7 @@
       </c>
       <c r="AA7" s="77"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -20877,7 +20887,7 @@
       </c>
       <c r="AA8" s="77"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -20947,7 +20957,7 @@
       </c>
       <c r="AA9" s="77"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -21017,7 +21027,7 @@
       </c>
       <c r="AA10" s="77"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -21087,7 +21097,7 @@
       </c>
       <c r="AA11" s="77"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -21157,7 +21167,7 @@
       </c>
       <c r="AA12" s="77"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -21225,7 +21235,7 @@
       </c>
       <c r="AA13" s="77"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
@@ -21293,7 +21303,7 @@
       </c>
       <c r="AA14" s="77"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -21361,7 +21371,7 @@
       </c>
       <c r="AA15" s="77"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -21429,7 +21439,7 @@
       </c>
       <c r="AA16" s="77"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -21497,7 +21507,7 @@
       </c>
       <c r="AA17" s="77"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -21565,7 +21575,7 @@
       </c>
       <c r="AA18" s="77"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -21633,7 +21643,7 @@
       </c>
       <c r="AA19" s="77"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -21701,7 +21711,7 @@
       </c>
       <c r="AA20" s="77"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -21769,7 +21779,7 @@
       </c>
       <c r="AA21" s="77"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27">
       <c r="B22" s="83"/>
       <c r="C22" s="83"/>
       <c r="D22" s="4"/>
@@ -21856,25 +21866,25 @@
       </c>
       <c r="AA22" s="83"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -21930,17 +21940,17 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="164" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -21963,7 +21973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="31.5">
       <c r="A2" s="81" t="s">
         <v>217</v>
       </c>
@@ -21986,7 +21996,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="81" t="s">
         <v>219</v>
       </c>
@@ -22009,7 +22019,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="31.5">
       <c r="A4" s="81" t="s">
         <v>223</v>
       </c>
@@ -22032,7 +22042,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="81" t="s">
         <v>223</v>
       </c>
@@ -22055,7 +22065,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="81" t="s">
         <v>223</v>
       </c>
@@ -22078,7 +22088,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="81" t="s">
         <v>223</v>
       </c>
@@ -22101,7 +22111,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="81" t="s">
         <v>228</v>
       </c>
@@ -22124,7 +22134,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="81" t="s">
         <v>228</v>
       </c>
@@ -22147,7 +22157,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="81" t="s">
         <v>228</v>
       </c>
@@ -22170,7 +22180,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="81" t="s">
         <v>228</v>
       </c>
@@ -22193,7 +22203,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="81" t="s">
         <v>228</v>
       </c>
@@ -22216,7 +22226,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="81" t="s">
         <v>234</v>
       </c>
@@ -22239,7 +22249,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="81" t="s">
         <v>234</v>
       </c>
@@ -22262,7 +22272,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="81" t="s">
         <v>234</v>
       </c>
@@ -22285,7 +22295,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="81" t="s">
         <v>234</v>
       </c>
@@ -22308,7 +22318,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="81" t="s">
         <v>234</v>
       </c>
@@ -22331,7 +22341,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="81" t="s">
         <v>240</v>
       </c>
@@ -22354,7 +22364,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="81" t="s">
         <v>242</v>
       </c>
@@ -22377,7 +22387,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="81" t="s">
         <v>242</v>
       </c>
@@ -22400,7 +22410,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="81" t="s">
         <v>242</v>
       </c>
@@ -22423,7 +22433,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="81" t="s">
         <v>242</v>
       </c>
@@ -22446,7 +22456,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="81" t="s">
         <v>242</v>
       </c>
@@ -22469,7 +22479,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="81" t="s">
         <v>248</v>
       </c>
@@ -22492,7 +22502,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="81" t="s">
         <v>248</v>
       </c>
@@ -22515,7 +22525,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="81" t="s">
         <v>248</v>
       </c>
@@ -22538,7 +22548,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="81" t="s">
         <v>252</v>
       </c>
@@ -22561,7 +22571,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="81" t="s">
         <v>252</v>
       </c>
@@ -22584,7 +22594,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="81" t="s">
         <v>252</v>
       </c>
@@ -22607,7 +22617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="81" t="s">
         <v>252</v>
       </c>
@@ -22630,7 +22640,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="81" t="s">
         <v>257</v>
       </c>
@@ -22653,7 +22663,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="81" t="s">
         <v>259</v>
       </c>
@@ -22676,7 +22686,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="81" t="s">
         <v>261</v>
       </c>
@@ -22699,7 +22709,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="81" t="s">
         <v>263</v>
       </c>
@@ -22722,7 +22732,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="81" t="s">
         <v>263</v>
       </c>
@@ -22745,7 +22755,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="81" t="s">
         <v>263</v>
       </c>
@@ -22768,7 +22778,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="81" t="s">
         <v>263</v>
       </c>
@@ -22791,7 +22801,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="81" t="s">
         <v>263</v>
       </c>
@@ -22814,7 +22824,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>48</v>
       </c>
